--- a/benches/results/collect.xlsx
+++ b/benches/results/collect.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\uurdev\orx\orx-concurrent-bag\benches\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\uarikan\repos\orx\orx-concurrent-bag\benches\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CAE429C-A22F-45E6-A6EB-D054EBE0F59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9018F325-938E-43B5-ADC1-924CC644F2DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25350" yWindow="1215" windowWidth="21165" windowHeight="19170" activeTab="2" xr2:uid="{201707E4-C870-4993-88CE-4A7BD9846E2B}"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="25800" windowHeight="21000" activeTab="1" xr2:uid="{201707E4-C870-4993-88CE-4A7BD9846E2B}"/>
   </bookViews>
   <sheets>
     <sheet name="collect_with_push" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="21">
   <si>
     <t>number of elements</t>
   </si>
@@ -113,7 +113,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,8 +134,21 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,8 +167,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -328,11 +347,208 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="medium">
+        <color theme="1" tint="0.14993743705557422"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1" tint="0.14993743705557422"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="medium">
+        <color theme="1" tint="0.14993743705557422"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1" tint="0.14993743705557422"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -397,6 +613,79 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -406,7 +695,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,6 +703,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF3300"/>
+      <color rgb="FFD80000"/>
+      <color rgb="FFD00808"/>
       <color rgb="FFCC3300"/>
     </mruColors>
   </colors>
@@ -430,9 +721,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -470,7 +761,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -576,7 +867,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -718,7 +1009,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -726,21 +1017,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD7FC78D-902C-4DF1-8F50-38A3D8921053}">
-  <dimension ref="B1:I41"/>
+  <dimension ref="B1:I26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="51.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" hidden="1" customWidth="1"/>
-    <col min="5" max="8" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="51.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" hidden="1" customWidth="1"/>
+    <col min="5" max="8" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -755,927 +1046,485 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>16384</v>
+        <v>65536</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.26207999999999998</v>
+        <v>3.7170999999999998</v>
       </c>
       <c r="G2" s="22">
-        <v>19.791</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7.4029999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>15</v>
       </c>
       <c r="C3">
-        <v>16384</v>
+        <v>65536</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>4.1532999999999998</v>
+        <v>2.7392099999999999</v>
       </c>
       <c r="G3" s="22">
-        <v>10.696</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3.8266</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>16</v>
       </c>
       <c r="C4">
-        <v>16384</v>
+        <v>65536</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>5.4705000000000004</v>
+        <v>2.9256000000000002</v>
       </c>
       <c r="G4" s="22">
-        <v>12.385</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3.5007000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="20">
-        <v>16384</v>
+        <v>65536</v>
       </c>
       <c r="D5" s="21">
         <v>0</v>
       </c>
       <c r="E5" s="20">
-        <v>3.95</v>
+        <v>2.4264999999999999</v>
       </c>
       <c r="F5" s="20"/>
       <c r="G5" s="23">
-        <v>10.888999999999999</v>
+        <v>3.3963000000000001</v>
       </c>
       <c r="H5" s="20"/>
       <c r="I5" s="20"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" t="str">
         <f>B2</f>
         <v>rayon</v>
       </c>
       <c r="C6">
-        <v>16384</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
+        <v>262144</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.54823999999999995</v>
+        <v>5.3632999999999997</v>
       </c>
       <c r="G6" s="22">
-        <v>18.863</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+        <v>26.773</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" t="str">
-        <f>B3</f>
+        <f t="shared" ref="B7:B9" si="0">B3</f>
         <v>ConcurrentBag&lt;SplitVec&lt;_, Doubling&gt;&gt;::push</v>
       </c>
       <c r="C7">
-        <v>16384</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>8</v>
+        <v>262144</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>4.8959000000000001</v>
+        <v>9.5039999999999996</v>
       </c>
       <c r="G7" s="22">
-        <v>13.276</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+        <v>16.623000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" t="str">
-        <f t="shared" ref="B8:B17" si="0">B4</f>
+        <f t="shared" si="0"/>
         <v>ConcurrentBag&lt;SplitVec&lt;_, Linear&gt;&gt;::push</v>
       </c>
       <c r="C8">
-        <v>16384</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>8</v>
+        <v>262144</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>4.8270999999999997</v>
+        <v>10.89</v>
       </c>
       <c r="G8" s="22">
-        <v>13.029</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15.903</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="20" t="str">
         <f t="shared" si="0"/>
         <v>ConcurrentBag&lt;FixedVec&lt;_&gt;&gt;::push</v>
       </c>
       <c r="C9" s="20">
-        <v>16384</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>8</v>
+        <v>262144</v>
+      </c>
+      <c r="D9" s="21">
+        <v>0</v>
       </c>
       <c r="E9" s="20">
-        <v>4.6432000000000002</v>
+        <v>9.4459</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="20">
-        <v>11.721</v>
+        <v>15.135999999999999</v>
       </c>
       <c r="H9" s="20"/>
       <c r="I9" s="20"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" t="str">
-        <f t="shared" si="0"/>
-        <v>rayon</v>
-      </c>
-      <c r="C10">
-        <v>65536</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>1.3241000000000001</v>
-      </c>
-      <c r="G10" s="22">
-        <v>81.653999999999996</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" t="str">
-        <f t="shared" si="0"/>
-        <v>ConcurrentBag&lt;SplitVec&lt;_, Doubling&gt;&gt;::push</v>
-      </c>
-      <c r="C11">
-        <v>65536</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>18.547999999999998</v>
-      </c>
-      <c r="G11" s="22">
-        <v>43.246000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" t="str">
-        <f t="shared" si="0"/>
-        <v>ConcurrentBag&lt;SplitVec&lt;_, Linear&gt;&gt;::push</v>
-      </c>
-      <c r="C12">
-        <v>65536</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>23.760999999999999</v>
-      </c>
-      <c r="G12" s="22">
-        <v>56.267000000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>ConcurrentBag&lt;FixedVec&lt;_&gt;&gt;::push</v>
-      </c>
-      <c r="C13" s="20">
-        <v>65536</v>
-      </c>
-      <c r="D13" s="21">
-        <v>0</v>
-      </c>
-      <c r="E13" s="20">
-        <v>16.693999999999999</v>
-      </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20">
-        <v>51.183</v>
-      </c>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" t="str">
-        <f t="shared" si="0"/>
-        <v>rayon</v>
-      </c>
-      <c r="C14">
-        <v>65536</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14">
-        <v>1.468</v>
-      </c>
-      <c r="G14" s="22">
-        <v>80.281000000000006</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" t="str">
-        <f t="shared" si="0"/>
-        <v>ConcurrentBag&lt;SplitVec&lt;_, Doubling&gt;&gt;::push</v>
-      </c>
-      <c r="C15">
-        <v>65536</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15">
-        <v>17.001999999999999</v>
-      </c>
-      <c r="G15" s="22">
-        <v>49.162999999999997</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" t="str">
-        <f t="shared" si="0"/>
-        <v>ConcurrentBag&lt;SplitVec&lt;_, Linear&gt;&gt;::push</v>
-      </c>
-      <c r="C16">
-        <v>65536</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16">
-        <v>22.344000000000001</v>
-      </c>
-      <c r="G16" s="22">
-        <v>53.402000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>ConcurrentBag&lt;FixedVec&lt;_&gt;&gt;::push</v>
-      </c>
-      <c r="C17" s="20">
-        <v>65536</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="20">
-        <v>19.791</v>
-      </c>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20">
-        <v>48.369</v>
-      </c>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-    </row>
-    <row r="24" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="2:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="12" t="s">
+    <row r="16" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="2:8" ht="39.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="13" t="str">
-        <f>D1</f>
+      <c r="C17" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="27" t="str">
+        <f t="shared" ref="D17:D25" si="1">D1</f>
         <v>workload</v>
       </c>
-      <c r="E25" s="24" t="s">
+      <c r="E17" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="25"/>
-      <c r="G25" s="24" t="s">
+      <c r="F17" s="47"/>
+      <c r="G17" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="H25" s="26"/>
-    </row>
-    <row r="26" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="4" t="str">
+      <c r="H17" s="48"/>
+    </row>
+    <row r="18" spans="2:8" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="28" t="str">
         <f>B2</f>
         <v>rayon</v>
       </c>
-      <c r="C26" s="2">
-        <f t="shared" ref="C26:C41" si="1">C2</f>
-        <v>16384</v>
-      </c>
-      <c r="D26" s="10">
-        <f t="shared" ref="D26" si="2">D2</f>
-        <v>0</v>
-      </c>
-      <c r="E26" s="8">
-        <f t="shared" ref="E26:E41" si="3">E2</f>
-        <v>0.26207999999999998</v>
-      </c>
-      <c r="F26" s="5">
-        <f>E26/E$26</f>
+      <c r="C18" s="29">
+        <f>C2</f>
+        <v>65536</v>
+      </c>
+      <c r="D18" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="31">
+        <f t="shared" ref="E18:E25" si="2">E2</f>
+        <v>3.7170999999999998</v>
+      </c>
+      <c r="F18" s="32">
+        <f>E18/E$18</f>
         <v>1</v>
       </c>
-      <c r="G26" s="8">
-        <f t="shared" ref="G26:G41" si="4">G2</f>
-        <v>19.791</v>
-      </c>
-      <c r="H26" s="5">
-        <f>G26/G$26</f>
+      <c r="G18" s="31">
+        <f t="shared" ref="G18:G25" si="3">G2</f>
+        <v>7.4029999999999996</v>
+      </c>
+      <c r="H18" s="33">
+        <f>G18/G$18</f>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="15" t="str">
-        <f t="shared" ref="B27:B41" si="5">B3</f>
+    <row r="19" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="34" t="str">
+        <f t="shared" ref="B19:B25" si="4">B3</f>
         <v>ConcurrentBag&lt;SplitVec&lt;_, Doubling&gt;&gt;::push</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C19" s="35">
+        <f t="shared" ref="C19:C25" si="5">C3</f>
+        <v>65536</v>
+      </c>
+      <c r="D19" s="36">
         <f t="shared" si="1"/>
-        <v>16384</v>
-      </c>
-      <c r="D27" s="17">
-        <f t="shared" ref="D27:D41" si="6">D3</f>
-        <v>0</v>
-      </c>
-      <c r="E27" s="18">
+        <v>0</v>
+      </c>
+      <c r="E19" s="37">
+        <f t="shared" si="2"/>
+        <v>2.7392099999999999</v>
+      </c>
+      <c r="F19" s="38">
+        <f t="shared" ref="F19:F21" si="6">E19/E$18</f>
+        <v>0.7369212558177074</v>
+      </c>
+      <c r="G19" s="37">
         <f t="shared" si="3"/>
-        <v>4.1532999999999998</v>
-      </c>
-      <c r="F27" s="19">
-        <f t="shared" ref="F27:F29" si="7">E27/E$26</f>
-        <v>15.847451159951161</v>
-      </c>
-      <c r="G27" s="18">
+        <v>3.8266</v>
+      </c>
+      <c r="H19" s="39">
+        <f t="shared" ref="H19:H21" si="7">G19/G$18</f>
+        <v>0.51689855464001089</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="34" t="str">
         <f t="shared" si="4"/>
-        <v>10.696</v>
-      </c>
-      <c r="H27" s="19">
-        <f t="shared" ref="H27:H29" si="8">G27/G$26</f>
-        <v>0.54044767823758266</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="15" t="str">
+        <v>ConcurrentBag&lt;SplitVec&lt;_, Linear&gt;&gt;::push</v>
+      </c>
+      <c r="C20" s="35">
         <f t="shared" si="5"/>
+        <v>65536</v>
+      </c>
+      <c r="D20" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="37">
+        <f t="shared" si="2"/>
+        <v>2.9256000000000002</v>
+      </c>
+      <c r="F20" s="38">
+        <f t="shared" si="6"/>
+        <v>0.7870651852250411</v>
+      </c>
+      <c r="G20" s="37">
+        <f t="shared" si="3"/>
+        <v>3.5007000000000001</v>
+      </c>
+      <c r="H20" s="39">
+        <f t="shared" si="7"/>
+        <v>0.47287586113737679</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v>ConcurrentBag&lt;FixedVec&lt;_&gt;&gt;::push</v>
+      </c>
+      <c r="C21" s="41">
+        <f t="shared" si="5"/>
+        <v>65536</v>
+      </c>
+      <c r="D21" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="43">
+        <f t="shared" si="2"/>
+        <v>2.4264999999999999</v>
+      </c>
+      <c r="F21" s="44">
+        <f t="shared" si="6"/>
+        <v>0.65279384466385082</v>
+      </c>
+      <c r="G21" s="43">
+        <f t="shared" si="3"/>
+        <v>3.3963000000000001</v>
+      </c>
+      <c r="H21" s="45">
+        <f t="shared" si="7"/>
+        <v>0.45877347021477782</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>rayon</v>
+      </c>
+      <c r="C22" s="29">
+        <f t="shared" si="5"/>
+        <v>262144</v>
+      </c>
+      <c r="D22" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="31">
+        <f t="shared" si="2"/>
+        <v>5.3632999999999997</v>
+      </c>
+      <c r="F22" s="32">
+        <f>E22/E$22</f>
+        <v>1</v>
+      </c>
+      <c r="G22" s="31">
+        <f t="shared" si="3"/>
+        <v>26.773</v>
+      </c>
+      <c r="H22" s="33">
+        <f>G22/G$22</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v>ConcurrentBag&lt;SplitVec&lt;_, Doubling&gt;&gt;::push</v>
+      </c>
+      <c r="C23" s="35">
+        <f t="shared" si="5"/>
+        <v>262144</v>
+      </c>
+      <c r="D23" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="37">
+        <f t="shared" si="2"/>
+        <v>9.5039999999999996</v>
+      </c>
+      <c r="F23" s="38">
+        <f t="shared" ref="F23:F25" si="8">E23/E$22</f>
+        <v>1.7720433315309605</v>
+      </c>
+      <c r="G23" s="37">
+        <f t="shared" si="3"/>
+        <v>16.623000000000001</v>
+      </c>
+      <c r="H23" s="39">
+        <f t="shared" ref="H23:H25" si="9">G23/G$22</f>
+        <v>0.6208867142270198</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="34" t="str">
+        <f t="shared" si="4"/>
         <v>ConcurrentBag&lt;SplitVec&lt;_, Linear&gt;&gt;::push</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C24" s="35">
+        <f t="shared" si="5"/>
+        <v>262144</v>
+      </c>
+      <c r="D24" s="36">
         <f t="shared" si="1"/>
-        <v>16384</v>
-      </c>
-      <c r="D28" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E28" s="18">
+        <v>0</v>
+      </c>
+      <c r="E24" s="37">
+        <f t="shared" si="2"/>
+        <v>10.89</v>
+      </c>
+      <c r="F24" s="38">
+        <f t="shared" si="8"/>
+        <v>2.0304663173792257</v>
+      </c>
+      <c r="G24" s="37">
         <f t="shared" si="3"/>
-        <v>5.4705000000000004</v>
-      </c>
-      <c r="F28" s="19">
-        <f t="shared" si="7"/>
-        <v>20.873397435897438</v>
-      </c>
-      <c r="G28" s="18">
+        <v>15.903</v>
+      </c>
+      <c r="H24" s="39">
+        <f t="shared" si="9"/>
+        <v>0.59399394912785275</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="40" t="str">
         <f t="shared" si="4"/>
-        <v>12.385</v>
-      </c>
-      <c r="H28" s="19">
+        <v>ConcurrentBag&lt;FixedVec&lt;_&gt;&gt;::push</v>
+      </c>
+      <c r="C25" s="41">
+        <f t="shared" si="5"/>
+        <v>262144</v>
+      </c>
+      <c r="D25" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="43">
+        <f t="shared" si="2"/>
+        <v>9.4459</v>
+      </c>
+      <c r="F25" s="44">
         <f t="shared" si="8"/>
-        <v>0.62578950027790403</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>ConcurrentBag&lt;FixedVec&lt;_&gt;&gt;::push</v>
-      </c>
-      <c r="C29" s="3">
-        <f t="shared" si="1"/>
-        <v>16384</v>
-      </c>
-      <c r="D29" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E29" s="9">
+        <v>1.7612104487908564</v>
+      </c>
+      <c r="G25" s="43">
         <f t="shared" si="3"/>
-        <v>3.95</v>
-      </c>
-      <c r="F29" s="7">
-        <f t="shared" si="7"/>
-        <v>15.071733821733824</v>
-      </c>
-      <c r="G29" s="9">
-        <f t="shared" si="4"/>
-        <v>10.888999999999999</v>
-      </c>
-      <c r="H29" s="7">
-        <f t="shared" si="8"/>
-        <v>0.55019958567025407</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>rayon</v>
-      </c>
-      <c r="C30" s="2">
-        <f t="shared" si="1"/>
-        <v>16384</v>
-      </c>
-      <c r="D30" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v>20ns</v>
-      </c>
-      <c r="E30" s="8">
-        <f t="shared" si="3"/>
-        <v>0.54823999999999995</v>
-      </c>
-      <c r="F30" s="5">
-        <f>E30/E$30</f>
-        <v>1</v>
-      </c>
-      <c r="G30" s="8">
-        <f t="shared" si="4"/>
-        <v>18.863</v>
-      </c>
-      <c r="H30" s="5">
-        <f>G30/G$30</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v>ConcurrentBag&lt;SplitVec&lt;_, Doubling&gt;&gt;::push</v>
-      </c>
-      <c r="C31" s="16">
-        <f t="shared" si="1"/>
-        <v>16384</v>
-      </c>
-      <c r="D31" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v>20ns</v>
-      </c>
-      <c r="E31" s="18">
-        <f t="shared" si="3"/>
-        <v>4.8959000000000001</v>
-      </c>
-      <c r="F31" s="19">
-        <f t="shared" ref="F31:F33" si="9">E31/E$30</f>
-        <v>8.9302130453815867</v>
-      </c>
-      <c r="G31" s="18">
-        <f t="shared" si="4"/>
-        <v>13.276</v>
-      </c>
-      <c r="H31" s="19">
-        <f t="shared" ref="H31:H33" si="10">G31/G$30</f>
-        <v>0.70381169485235651</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v>ConcurrentBag&lt;SplitVec&lt;_, Linear&gt;&gt;::push</v>
-      </c>
-      <c r="C32" s="16">
-        <f t="shared" si="1"/>
-        <v>16384</v>
-      </c>
-      <c r="D32" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v>20ns</v>
-      </c>
-      <c r="E32" s="18">
-        <f t="shared" si="3"/>
-        <v>4.8270999999999997</v>
-      </c>
-      <c r="F32" s="19">
+        <v>15.135999999999999</v>
+      </c>
+      <c r="H25" s="45">
         <f t="shared" si="9"/>
-        <v>8.8047205603385379</v>
-      </c>
-      <c r="G32" s="18">
-        <f t="shared" si="4"/>
-        <v>13.029</v>
-      </c>
-      <c r="H32" s="19">
-        <f t="shared" si="10"/>
-        <v>0.69071727720935161</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>ConcurrentBag&lt;FixedVec&lt;_&gt;&gt;::push</v>
-      </c>
-      <c r="C33" s="3">
-        <f t="shared" si="1"/>
-        <v>16384</v>
-      </c>
-      <c r="D33" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v>20ns</v>
-      </c>
-      <c r="E33" s="9">
-        <f t="shared" si="3"/>
-        <v>4.6432000000000002</v>
-      </c>
-      <c r="F33" s="7">
-        <f t="shared" si="9"/>
-        <v>8.4692835254633021</v>
-      </c>
-      <c r="G33" s="9">
-        <f t="shared" si="4"/>
-        <v>11.721</v>
-      </c>
-      <c r="H33" s="7">
-        <f t="shared" si="10"/>
-        <v>0.62137517892169858</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>rayon</v>
-      </c>
-      <c r="C34" s="2">
-        <f t="shared" si="1"/>
-        <v>65536</v>
-      </c>
-      <c r="D34" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E34" s="8">
-        <f t="shared" si="3"/>
-        <v>1.3241000000000001</v>
-      </c>
-      <c r="F34" s="5">
-        <f>E34/E$34</f>
-        <v>1</v>
-      </c>
-      <c r="G34" s="8">
-        <f t="shared" si="4"/>
-        <v>81.653999999999996</v>
-      </c>
-      <c r="H34" s="5">
-        <f>G34/G$34</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v>ConcurrentBag&lt;SplitVec&lt;_, Doubling&gt;&gt;::push</v>
-      </c>
-      <c r="C35" s="16">
-        <f t="shared" si="1"/>
-        <v>65536</v>
-      </c>
-      <c r="D35" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E35" s="18">
-        <f t="shared" si="3"/>
-        <v>18.547999999999998</v>
-      </c>
-      <c r="F35" s="19">
-        <f t="shared" ref="F35:F37" si="11">E35/E$34</f>
-        <v>14.008005437655765</v>
-      </c>
-      <c r="G35" s="18">
-        <f t="shared" si="4"/>
-        <v>43.246000000000002</v>
-      </c>
-      <c r="H35" s="19">
-        <f t="shared" ref="H35:H37" si="12">G35/G$34</f>
-        <v>0.52962500306169946</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v>ConcurrentBag&lt;SplitVec&lt;_, Linear&gt;&gt;::push</v>
-      </c>
-      <c r="C36" s="16">
-        <f t="shared" si="1"/>
-        <v>65536</v>
-      </c>
-      <c r="D36" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E36" s="18">
-        <f t="shared" si="3"/>
-        <v>23.760999999999999</v>
-      </c>
-      <c r="F36" s="19">
-        <f t="shared" si="11"/>
-        <v>17.945019258364169</v>
-      </c>
-      <c r="G36" s="18">
-        <f t="shared" si="4"/>
-        <v>56.267000000000003</v>
-      </c>
-      <c r="H36" s="19">
-        <f t="shared" si="12"/>
-        <v>0.68909055282043752</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>ConcurrentBag&lt;FixedVec&lt;_&gt;&gt;::push</v>
-      </c>
-      <c r="C37" s="3">
-        <f t="shared" si="1"/>
-        <v>65536</v>
-      </c>
-      <c r="D37" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E37" s="9">
-        <f t="shared" si="3"/>
-        <v>16.693999999999999</v>
-      </c>
-      <c r="F37" s="7">
-        <f t="shared" si="11"/>
-        <v>12.607809077864209</v>
-      </c>
-      <c r="G37" s="9">
-        <f t="shared" si="4"/>
-        <v>51.183</v>
-      </c>
-      <c r="H37" s="7">
-        <f t="shared" si="12"/>
-        <v>0.62682783452127266</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>rayon</v>
-      </c>
-      <c r="C38" s="2">
-        <f t="shared" si="1"/>
-        <v>65536</v>
-      </c>
-      <c r="D38" s="10" t="str">
-        <f t="shared" si="6"/>
-        <v>20ns</v>
-      </c>
-      <c r="E38" s="8">
-        <f t="shared" si="3"/>
-        <v>1.468</v>
-      </c>
-      <c r="F38" s="5">
-        <f>E38/E$38</f>
-        <v>1</v>
-      </c>
-      <c r="G38" s="8">
-        <f t="shared" si="4"/>
-        <v>80.281000000000006</v>
-      </c>
-      <c r="H38" s="5">
-        <f>G38/G$38</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v>ConcurrentBag&lt;SplitVec&lt;_, Doubling&gt;&gt;::push</v>
-      </c>
-      <c r="C39" s="16">
-        <f t="shared" si="1"/>
-        <v>65536</v>
-      </c>
-      <c r="D39" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v>20ns</v>
-      </c>
-      <c r="E39" s="18">
-        <f t="shared" si="3"/>
-        <v>17.001999999999999</v>
-      </c>
-      <c r="F39" s="19">
-        <f t="shared" ref="F39:F41" si="13">E39/E$38</f>
-        <v>11.581743869209809</v>
-      </c>
-      <c r="G39" s="18">
-        <f t="shared" si="4"/>
-        <v>49.162999999999997</v>
-      </c>
-      <c r="H39" s="19">
-        <f t="shared" ref="H39:H41" si="14">G39/G$38</f>
-        <v>0.61238649244528587</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v>ConcurrentBag&lt;SplitVec&lt;_, Linear&gt;&gt;::push</v>
-      </c>
-      <c r="C40" s="16">
-        <f t="shared" si="1"/>
-        <v>65536</v>
-      </c>
-      <c r="D40" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v>20ns</v>
-      </c>
-      <c r="E40" s="18">
-        <f t="shared" si="3"/>
-        <v>22.344000000000001</v>
-      </c>
-      <c r="F40" s="19">
-        <f t="shared" si="13"/>
-        <v>15.220708446866485</v>
-      </c>
-      <c r="G40" s="18">
-        <f t="shared" si="4"/>
-        <v>53.402000000000001</v>
-      </c>
-      <c r="H40" s="19">
-        <f t="shared" si="14"/>
-        <v>0.66518852530486661</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>ConcurrentBag&lt;FixedVec&lt;_&gt;&gt;::push</v>
-      </c>
-      <c r="C41" s="3">
-        <f t="shared" si="1"/>
-        <v>65536</v>
-      </c>
-      <c r="D41" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v>20ns</v>
-      </c>
-      <c r="E41" s="9">
-        <f t="shared" si="3"/>
-        <v>19.791</v>
-      </c>
-      <c r="F41" s="7">
-        <f t="shared" si="13"/>
-        <v>13.481607629427794</v>
-      </c>
-      <c r="G41" s="9">
-        <f t="shared" si="4"/>
-        <v>48.369</v>
-      </c>
-      <c r="H41" s="7">
-        <f t="shared" si="14"/>
-        <v>0.60249623198515212</v>
-      </c>
-    </row>
+        <v>0.5653456840847122</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
   </mergeCells>
-  <conditionalFormatting sqref="F26:F29">
-    <cfRule type="dataBar" priority="8">
+  <conditionalFormatting sqref="F18:F21">
+    <cfRule type="dataBar" priority="4">
       <dataBar showValue="0">
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FFFFB628"/>
+        <color theme="7"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{174497F1-D66C-4F56-9A51-8124BED158B6}</x14:id>
+          <x14:id>{08A849E5-CB78-488C-9D5B-026339A7A34C}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30:F33">
-    <cfRule type="dataBar" priority="7">
+  <conditionalFormatting sqref="F22:F25">
+    <cfRule type="dataBar" priority="3">
       <dataBar showValue="0">
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FFFFB628"/>
+        <color rgb="FFFF3300"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4B8F1DF9-AF92-48B3-92F1-001448B4A017}</x14:id>
+          <x14:id>{E9B70DED-250E-46E6-A5C7-D5F48F2D6F77}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F34:F37">
-    <cfRule type="dataBar" priority="6">
+  <conditionalFormatting sqref="H18:H21">
+    <cfRule type="dataBar" priority="2">
       <dataBar showValue="0">
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FFFFB628"/>
+        <color theme="7"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{21C99A28-1CAC-4B17-A70E-A8D9E6030683}</x14:id>
+          <x14:id>{B022FDA3-7EBB-4DC4-A3A9-6D235CB84EE1}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F38:F41">
-    <cfRule type="dataBar" priority="5">
-      <dataBar showValue="0">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFB628"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C1542B4F-C815-48F6-8D42-21DA975D34CF}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H26:H29">
-    <cfRule type="dataBar" priority="4">
-      <dataBar showValue="0">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFB628"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{627311B3-B6B8-4CCB-B3C2-F1D77A962B62}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30:H33">
-    <cfRule type="dataBar" priority="3">
-      <dataBar showValue="0">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFB628"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3D1EF6E5-53F3-4100-ABDC-DDFE5F43B8F4}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H34:H37">
-    <cfRule type="dataBar" priority="2">
-      <dataBar showValue="0">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFB628"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{797CD07D-31EB-4762-BEBB-2FA26E0D1365}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H38:H41">
+  <conditionalFormatting sqref="H22:H25">
     <cfRule type="dataBar" priority="1">
       <dataBar showValue="0">
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FFFFB628"/>
+        <color rgb="FFFF3300"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ECB5298B-030E-4B3D-9008-3CAFAC2EA877}</x14:id>
+          <x14:id>{01B817C0-39B1-4552-A0FE-5DFFA6937FE7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="F18:F25" formula="1"/>
+  </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{174497F1-D66C-4F56-9A51-8124BED158B6}">
+          <x14:cfRule type="dataBar" id="{08A849E5-CB78-488C-9D5B-026339A7A34C}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1683,10 +1532,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F26:F29</xm:sqref>
+          <xm:sqref>F18:F21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4B8F1DF9-AF92-48B3-92F1-001448B4A017}">
+          <x14:cfRule type="dataBar" id="{E9B70DED-250E-46E6-A5C7-D5F48F2D6F77}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1694,10 +1543,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F30:F33</xm:sqref>
+          <xm:sqref>F22:F25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{21C99A28-1CAC-4B17-A70E-A8D9E6030683}">
+          <x14:cfRule type="dataBar" id="{B022FDA3-7EBB-4DC4-A3A9-6D235CB84EE1}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1705,10 +1554,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F34:F37</xm:sqref>
+          <xm:sqref>H18:H21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C1542B4F-C815-48F6-8D42-21DA975D34CF}">
+          <x14:cfRule type="dataBar" id="{01B817C0-39B1-4552-A0FE-5DFFA6937FE7}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1716,51 +1565,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F38:F41</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{627311B3-B6B8-4CCB-B3C2-F1D77A962B62}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H26:H29</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3D1EF6E5-53F3-4100-ABDC-DDFE5F43B8F4}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H30:H33</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{797CD07D-31EB-4762-BEBB-2FA26E0D1365}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H34:H37</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ECB5298B-030E-4B3D-9008-3CAFAC2EA877}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H38:H41</xm:sqref>
+          <xm:sqref>H22:H25</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -1770,21 +1575,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAC745C-D468-49EC-93AB-3CA0AF648CD4}">
-  <dimension ref="B1:I41"/>
+  <dimension ref="B1:I26"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="54" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" hidden="1" customWidth="1"/>
-    <col min="5" max="8" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" hidden="1" customWidth="1"/>
+    <col min="5" max="8" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1799,927 +1604,485 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>16384</v>
+        <v>65536</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.26207999999999998</v>
+        <v>4.2633000000000001</v>
       </c>
       <c r="G2" s="22">
-        <v>19.791</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7.1547999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>18</v>
       </c>
       <c r="C3">
-        <v>16384</v>
+        <v>65536</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.32496000000000003</v>
+        <v>0.14282</v>
       </c>
       <c r="G3" s="22">
-        <v>6.0583</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.0018</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>19</v>
       </c>
       <c r="C4">
-        <v>16384</v>
+        <v>65536</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.38901999999999998</v>
+        <v>0.15784000000000001</v>
       </c>
       <c r="G4" s="22">
-        <v>6.5092999999999996</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1.0303</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="20" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="20">
-        <v>16384</v>
+        <v>65536</v>
       </c>
       <c r="D5" s="21">
         <v>0</v>
       </c>
       <c r="E5" s="20">
-        <v>0.40483000000000002</v>
+        <v>0.14305000000000001</v>
       </c>
       <c r="F5" s="20"/>
       <c r="G5" s="23">
-        <v>7.1651999999999996</v>
+        <v>1.0033000000000001</v>
       </c>
       <c r="H5" s="20"/>
       <c r="I5" s="20"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" t="str">
         <f>B2</f>
         <v>rayon</v>
       </c>
       <c r="C6">
-        <v>16384</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
+        <v>262144</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.48764000000000002</v>
+        <v>5.3914</v>
       </c>
       <c r="G6" s="22">
-        <v>19.321999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+        <v>26.247</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" t="str">
-        <f>B3</f>
+        <f t="shared" ref="B7:B9" si="0">B3</f>
         <v>ConcurrentBag&lt;SplitVec&lt;_, Doubling&gt;&gt;::extend</v>
       </c>
       <c r="C7">
-        <v>16384</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>8</v>
+        <v>262144</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.49142999999999998</v>
+        <v>0.21109</v>
       </c>
       <c r="G7" s="22">
-        <v>6.4730999999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3.6606999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" t="str">
-        <f t="shared" ref="B8:B17" si="0">B4</f>
+        <f t="shared" si="0"/>
         <v>ConcurrentBag&lt;SplitVec&lt;_, Linear&gt;&gt;::extend</v>
       </c>
       <c r="C8">
-        <v>16384</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>8</v>
+        <v>262144</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.61722999999999995</v>
+        <v>0.20188999999999999</v>
       </c>
       <c r="G8" s="22">
-        <v>6.8558000000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="20" t="str">
+        <v>3.6219999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" t="str">
         <f t="shared" si="0"/>
         <v>ConcurrentBag&lt;FixedVec&lt;_&gt;&gt;::extend</v>
       </c>
       <c r="C9" s="20">
-        <v>16384</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>8</v>
+        <v>262144</v>
+      </c>
+      <c r="D9" s="21">
+        <v>0</v>
       </c>
       <c r="E9" s="20">
-        <v>0.43439</v>
+        <v>0.19142999999999999</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="20">
-        <v>6.4774000000000003</v>
+        <v>5.6154000000000002</v>
       </c>
       <c r="H9" s="20"/>
       <c r="I9" s="20"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" t="str">
-        <f t="shared" si="0"/>
-        <v>rayon</v>
-      </c>
-      <c r="C10">
-        <v>65536</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>1.3241000000000001</v>
-      </c>
-      <c r="G10" s="22">
-        <v>81.653999999999996</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" t="str">
-        <f t="shared" si="0"/>
-        <v>ConcurrentBag&lt;SplitVec&lt;_, Doubling&gt;&gt;::extend</v>
-      </c>
-      <c r="C11">
-        <v>65536</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0.69342999999999999</v>
-      </c>
-      <c r="G11" s="22">
-        <v>24.927</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" t="str">
-        <f t="shared" si="0"/>
-        <v>ConcurrentBag&lt;SplitVec&lt;_, Linear&gt;&gt;::extend</v>
-      </c>
-      <c r="C12">
-        <v>65536</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0.82179000000000002</v>
-      </c>
-      <c r="G12" s="22">
-        <v>27.818999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>ConcurrentBag&lt;FixedVec&lt;_&gt;&gt;::extend</v>
-      </c>
-      <c r="C13" s="20">
-        <v>65536</v>
-      </c>
-      <c r="D13" s="21">
-        <v>0</v>
-      </c>
-      <c r="E13" s="20">
-        <v>0.75366999999999995</v>
-      </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20">
-        <v>24.934999999999999</v>
-      </c>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" t="str">
-        <f t="shared" si="0"/>
-        <v>rayon</v>
-      </c>
-      <c r="C14">
-        <v>65536</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14">
-        <v>1.3212999999999999</v>
-      </c>
-      <c r="G14" s="22">
-        <v>81.343000000000004</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" t="str">
-        <f t="shared" si="0"/>
-        <v>ConcurrentBag&lt;SplitVec&lt;_, Doubling&gt;&gt;::extend</v>
-      </c>
-      <c r="C15">
-        <v>65536</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15">
-        <v>0.99661</v>
-      </c>
-      <c r="G15" s="22">
-        <v>25.25</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" t="str">
-        <f t="shared" si="0"/>
-        <v>ConcurrentBag&lt;SplitVec&lt;_, Linear&gt;&gt;::extend</v>
-      </c>
-      <c r="C16">
-        <v>65536</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16">
-        <v>1.0018</v>
-      </c>
-      <c r="G16" s="22">
-        <v>29.224</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>ConcurrentBag&lt;FixedVec&lt;_&gt;&gt;::extend</v>
-      </c>
-      <c r="C17" s="20">
-        <v>65536</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="20">
-        <v>0.80808000000000002</v>
-      </c>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20">
-        <v>25.58</v>
-      </c>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-    </row>
-    <row r="24" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="2:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="12" t="s">
+    <row r="16" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="2:8" ht="39.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="13" t="str">
-        <f>D1</f>
+      <c r="C17" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="27" t="str">
+        <f t="shared" ref="D17:D25" si="1">D1</f>
         <v>workload</v>
       </c>
-      <c r="E25" s="24" t="s">
+      <c r="E17" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="25"/>
-      <c r="G25" s="24" t="s">
+      <c r="F17" s="47"/>
+      <c r="G17" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="H25" s="26"/>
-    </row>
-    <row r="26" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="4" t="str">
+      <c r="H17" s="48"/>
+    </row>
+    <row r="18" spans="2:8" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="28" t="str">
         <f>B2</f>
         <v>rayon</v>
       </c>
-      <c r="C26" s="2">
-        <f t="shared" ref="C26:E41" si="1">C2</f>
-        <v>16384</v>
-      </c>
-      <c r="D26" s="10">
+      <c r="C18" s="29">
+        <f>C2</f>
+        <v>65536</v>
+      </c>
+      <c r="D18" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E18" s="31">
+        <f t="shared" ref="E18:E25" si="2">E2</f>
+        <v>4.2633000000000001</v>
+      </c>
+      <c r="F18" s="32">
+        <f>E18/E$18</f>
+        <v>1</v>
+      </c>
+      <c r="G18" s="31">
+        <f t="shared" ref="G18:G25" si="3">G2</f>
+        <v>7.1547999999999998</v>
+      </c>
+      <c r="H18" s="33">
+        <f>G18/G$18</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="34" t="str">
+        <f t="shared" ref="B19:B25" si="4">B3</f>
+        <v>ConcurrentBag&lt;SplitVec&lt;_, Doubling&gt;&gt;::extend</v>
+      </c>
+      <c r="C19" s="35">
+        <f t="shared" ref="C19:C25" si="5">C3</f>
+        <v>65536</v>
+      </c>
+      <c r="D19" s="36">
         <f t="shared" si="1"/>
-        <v>0.26207999999999998</v>
-      </c>
-      <c r="F26" s="5">
-        <f>E26/E$26</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="37">
+        <f t="shared" si="2"/>
+        <v>0.14282</v>
+      </c>
+      <c r="F19" s="38">
+        <f t="shared" ref="F19:F21" si="6">E19/E$18</f>
+        <v>3.3499870991954589E-2</v>
+      </c>
+      <c r="G19" s="37">
+        <f t="shared" si="3"/>
+        <v>1.0018</v>
+      </c>
+      <c r="H19" s="39">
+        <f t="shared" ref="H19:H21" si="7">G19/G$18</f>
+        <v>0.14001789008777324</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v>ConcurrentBag&lt;SplitVec&lt;_, Linear&gt;&gt;::extend</v>
+      </c>
+      <c r="C20" s="35">
+        <f t="shared" si="5"/>
+        <v>65536</v>
+      </c>
+      <c r="D20" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="37">
+        <f t="shared" si="2"/>
+        <v>0.15784000000000001</v>
+      </c>
+      <c r="F20" s="38">
+        <f t="shared" si="6"/>
+        <v>3.7022963432083132E-2</v>
+      </c>
+      <c r="G20" s="37">
+        <f t="shared" si="3"/>
+        <v>1.0303</v>
+      </c>
+      <c r="H20" s="39">
+        <f t="shared" si="7"/>
+        <v>0.14400122994353443</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v>ConcurrentBag&lt;FixedVec&lt;_&gt;&gt;::extend</v>
+      </c>
+      <c r="C21" s="41">
+        <f t="shared" si="5"/>
+        <v>65536</v>
+      </c>
+      <c r="D21" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="43">
+        <f t="shared" si="2"/>
+        <v>0.14305000000000001</v>
+      </c>
+      <c r="F21" s="44">
+        <f t="shared" si="6"/>
+        <v>3.3553819810944574E-2</v>
+      </c>
+      <c r="G21" s="43">
+        <f t="shared" si="3"/>
+        <v>1.0033000000000001</v>
+      </c>
+      <c r="H21" s="45">
+        <f t="shared" si="7"/>
+        <v>0.14022753955386594</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="28" t="str">
+        <f t="shared" si="4"/>
+        <v>rayon</v>
+      </c>
+      <c r="C22" s="29">
+        <f t="shared" si="5"/>
+        <v>262144</v>
+      </c>
+      <c r="D22" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="31">
+        <f t="shared" si="2"/>
+        <v>5.3914</v>
+      </c>
+      <c r="F22" s="32">
+        <f>E22/E$22</f>
         <v>1</v>
       </c>
-      <c r="G26" s="8">
-        <f t="shared" ref="G26:G41" si="2">G2</f>
-        <v>19.791</v>
-      </c>
-      <c r="H26" s="5">
-        <f>G26/G$26</f>
+      <c r="G22" s="31">
+        <f t="shared" si="3"/>
+        <v>26.247</v>
+      </c>
+      <c r="H22" s="33">
+        <f>G22/G$22</f>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="15" t="str">
-        <f t="shared" ref="B27:B41" si="3">B3</f>
+    <row r="23" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="34" t="str">
+        <f t="shared" si="4"/>
         <v>ConcurrentBag&lt;SplitVec&lt;_, Doubling&gt;&gt;::extend</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C23" s="35">
+        <f t="shared" si="5"/>
+        <v>262144</v>
+      </c>
+      <c r="D23" s="36">
         <f t="shared" si="1"/>
-        <v>16384</v>
-      </c>
-      <c r="D27" s="17">
+        <v>0</v>
+      </c>
+      <c r="E23" s="37">
+        <f t="shared" si="2"/>
+        <v>0.21109</v>
+      </c>
+      <c r="F23" s="38">
+        <f t="shared" ref="F23:F25" si="8">E23/E$22</f>
+        <v>3.9153095670883258E-2</v>
+      </c>
+      <c r="G23" s="37">
+        <f t="shared" si="3"/>
+        <v>3.6606999999999998</v>
+      </c>
+      <c r="H23" s="39">
+        <f t="shared" ref="H23:H25" si="9">G23/G$22</f>
+        <v>0.13947117765839906</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="34" t="str">
+        <f t="shared" si="4"/>
+        <v>ConcurrentBag&lt;SplitVec&lt;_, Linear&gt;&gt;::extend</v>
+      </c>
+      <c r="C24" s="35">
+        <f t="shared" si="5"/>
+        <v>262144</v>
+      </c>
+      <c r="D24" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E24" s="37">
+        <f t="shared" si="2"/>
+        <v>0.20188999999999999</v>
+      </c>
+      <c r="F24" s="38">
+        <f t="shared" si="8"/>
+        <v>3.7446674333197309E-2</v>
+      </c>
+      <c r="G24" s="37">
+        <f t="shared" si="3"/>
+        <v>3.6219999999999999</v>
+      </c>
+      <c r="H24" s="39">
+        <f t="shared" si="9"/>
+        <v>0.13799672343505925</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="40" t="str">
+        <f t="shared" si="4"/>
+        <v>ConcurrentBag&lt;FixedVec&lt;_&gt;&gt;::extend</v>
+      </c>
+      <c r="C25" s="41">
+        <f t="shared" si="5"/>
+        <v>262144</v>
+      </c>
+      <c r="D25" s="42">
         <f t="shared" si="1"/>
-        <v>0.32496000000000003</v>
-      </c>
-      <c r="F27" s="19">
-        <f t="shared" ref="F27:F29" si="4">E27/E$26</f>
-        <v>1.2399267399267402</v>
-      </c>
-      <c r="G27" s="18">
-        <f t="shared" si="2"/>
-        <v>6.0583</v>
-      </c>
-      <c r="H27" s="19">
-        <f t="shared" ref="H27:H29" si="5">G27/G$26</f>
-        <v>0.30611389015208934</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="15" t="str">
+        <v>0</v>
+      </c>
+      <c r="E25" s="43">
+        <f t="shared" si="2"/>
+        <v>0.19142999999999999</v>
+      </c>
+      <c r="F25" s="44">
+        <f t="shared" si="8"/>
+        <v>3.5506547464480467E-2</v>
+      </c>
+      <c r="G25" s="43">
         <f t="shared" si="3"/>
-        <v>ConcurrentBag&lt;SplitVec&lt;_, Linear&gt;&gt;::extend</v>
-      </c>
-      <c r="C28" s="16">
-        <f t="shared" si="1"/>
-        <v>16384</v>
-      </c>
-      <c r="D28" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E28" s="18">
-        <f t="shared" si="1"/>
-        <v>0.38901999999999998</v>
-      </c>
-      <c r="F28" s="19">
-        <f t="shared" si="4"/>
-        <v>1.4843559218559219</v>
-      </c>
-      <c r="G28" s="18">
-        <f t="shared" si="2"/>
-        <v>6.5092999999999996</v>
-      </c>
-      <c r="H28" s="19">
-        <f t="shared" si="5"/>
-        <v>0.32890202617351316</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>ConcurrentBag&lt;FixedVec&lt;_&gt;&gt;::extend</v>
-      </c>
-      <c r="C29" s="3">
-        <f t="shared" si="1"/>
-        <v>16384</v>
-      </c>
-      <c r="D29" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E29" s="9">
-        <f t="shared" si="1"/>
-        <v>0.40483000000000002</v>
-      </c>
-      <c r="F29" s="7">
-        <f t="shared" si="4"/>
-        <v>1.5446810134310136</v>
-      </c>
-      <c r="G29" s="9">
-        <f t="shared" si="2"/>
-        <v>7.1651999999999996</v>
-      </c>
-      <c r="H29" s="7">
-        <f t="shared" si="5"/>
-        <v>0.36204335303926022</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>rayon</v>
-      </c>
-      <c r="C30" s="2">
-        <f t="shared" si="1"/>
-        <v>16384</v>
-      </c>
-      <c r="D30" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>20ns</v>
-      </c>
-      <c r="E30" s="8">
-        <f t="shared" si="1"/>
-        <v>0.48764000000000002</v>
-      </c>
-      <c r="F30" s="5">
-        <f>E30/E$30</f>
-        <v>1</v>
-      </c>
-      <c r="G30" s="8">
-        <f t="shared" si="2"/>
-        <v>19.321999999999999</v>
-      </c>
-      <c r="H30" s="5">
-        <f>G30/G$30</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v>ConcurrentBag&lt;SplitVec&lt;_, Doubling&gt;&gt;::extend</v>
-      </c>
-      <c r="C31" s="16">
-        <f t="shared" si="1"/>
-        <v>16384</v>
-      </c>
-      <c r="D31" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>20ns</v>
-      </c>
-      <c r="E31" s="18">
-        <f t="shared" si="1"/>
-        <v>0.49142999999999998</v>
-      </c>
-      <c r="F31" s="19">
-        <f t="shared" ref="F31:F33" si="6">E31/E$30</f>
-        <v>1.0077721269789188</v>
-      </c>
-      <c r="G31" s="18">
-        <f t="shared" si="2"/>
-        <v>6.4730999999999996</v>
-      </c>
-      <c r="H31" s="19">
-        <f t="shared" ref="H31:H33" si="7">G31/G$30</f>
-        <v>0.33501190352965532</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v>ConcurrentBag&lt;SplitVec&lt;_, Linear&gt;&gt;::extend</v>
-      </c>
-      <c r="C32" s="16">
-        <f t="shared" si="1"/>
-        <v>16384</v>
-      </c>
-      <c r="D32" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>20ns</v>
-      </c>
-      <c r="E32" s="18">
-        <f t="shared" si="1"/>
-        <v>0.61722999999999995</v>
-      </c>
-      <c r="F32" s="19">
-        <f t="shared" si="6"/>
-        <v>1.2657493232712655</v>
-      </c>
-      <c r="G32" s="18">
-        <f t="shared" si="2"/>
-        <v>6.8558000000000003</v>
-      </c>
-      <c r="H32" s="19">
-        <f t="shared" si="7"/>
-        <v>0.35481834178656457</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>ConcurrentBag&lt;FixedVec&lt;_&gt;&gt;::extend</v>
-      </c>
-      <c r="C33" s="3">
-        <f t="shared" si="1"/>
-        <v>16384</v>
-      </c>
-      <c r="D33" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>20ns</v>
-      </c>
-      <c r="E33" s="9">
-        <f t="shared" si="1"/>
-        <v>0.43439</v>
-      </c>
-      <c r="F33" s="7">
-        <f t="shared" si="6"/>
-        <v>0.89080059059962269</v>
-      </c>
-      <c r="G33" s="9">
-        <f t="shared" si="2"/>
-        <v>6.4774000000000003</v>
-      </c>
-      <c r="H33" s="7">
-        <f t="shared" si="7"/>
-        <v>0.33523444777973299</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>rayon</v>
-      </c>
-      <c r="C34" s="2">
-        <f t="shared" si="1"/>
-        <v>65536</v>
-      </c>
-      <c r="D34" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E34" s="8">
-        <f t="shared" si="1"/>
-        <v>1.3241000000000001</v>
-      </c>
-      <c r="F34" s="5">
-        <f>E34/E$34</f>
-        <v>1</v>
-      </c>
-      <c r="G34" s="8">
-        <f t="shared" si="2"/>
-        <v>81.653999999999996</v>
-      </c>
-      <c r="H34" s="5">
-        <f>G34/G$34</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v>ConcurrentBag&lt;SplitVec&lt;_, Doubling&gt;&gt;::extend</v>
-      </c>
-      <c r="C35" s="16">
-        <f t="shared" si="1"/>
-        <v>65536</v>
-      </c>
-      <c r="D35" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E35" s="18">
-        <f t="shared" si="1"/>
-        <v>0.69342999999999999</v>
-      </c>
-      <c r="F35" s="19">
-        <f t="shared" ref="F35:F37" si="8">E35/E$34</f>
-        <v>0.52369911638093791</v>
-      </c>
-      <c r="G35" s="18">
-        <f t="shared" si="2"/>
-        <v>24.927</v>
-      </c>
-      <c r="H35" s="19">
-        <f t="shared" ref="H35:H37" si="9">G35/G$34</f>
-        <v>0.30527592034682932</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v>ConcurrentBag&lt;SplitVec&lt;_, Linear&gt;&gt;::extend</v>
-      </c>
-      <c r="C36" s="16">
-        <f t="shared" si="1"/>
-        <v>65536</v>
-      </c>
-      <c r="D36" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E36" s="18">
-        <f t="shared" si="1"/>
-        <v>0.82179000000000002</v>
-      </c>
-      <c r="F36" s="19">
-        <f t="shared" si="8"/>
-        <v>0.62064043501246124</v>
-      </c>
-      <c r="G36" s="18">
-        <f t="shared" si="2"/>
-        <v>27.818999999999999</v>
-      </c>
-      <c r="H36" s="19">
+        <v>5.6154000000000002</v>
+      </c>
+      <c r="H25" s="45">
         <f t="shared" si="9"/>
-        <v>0.34069365860827394</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>ConcurrentBag&lt;FixedVec&lt;_&gt;&gt;::extend</v>
-      </c>
-      <c r="C37" s="3">
-        <f t="shared" si="1"/>
-        <v>65536</v>
-      </c>
-      <c r="D37" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E37" s="9">
-        <f t="shared" si="1"/>
-        <v>0.75366999999999995</v>
-      </c>
-      <c r="F37" s="7">
-        <f t="shared" si="8"/>
-        <v>0.56919416962465064</v>
-      </c>
-      <c r="G37" s="9">
-        <f t="shared" si="2"/>
-        <v>24.934999999999999</v>
-      </c>
-      <c r="H37" s="7">
-        <f t="shared" si="9"/>
-        <v>0.30537389472652904</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>rayon</v>
-      </c>
-      <c r="C38" s="2">
-        <f t="shared" si="1"/>
-        <v>65536</v>
-      </c>
-      <c r="D38" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>20ns</v>
-      </c>
-      <c r="E38" s="8">
-        <f t="shared" si="1"/>
-        <v>1.3212999999999999</v>
-      </c>
-      <c r="F38" s="5">
-        <f>E38/E$38</f>
-        <v>1</v>
-      </c>
-      <c r="G38" s="8">
-        <f t="shared" si="2"/>
-        <v>81.343000000000004</v>
-      </c>
-      <c r="H38" s="5">
-        <f>G38/G$38</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v>ConcurrentBag&lt;SplitVec&lt;_, Doubling&gt;&gt;::extend</v>
-      </c>
-      <c r="C39" s="16">
-        <f t="shared" si="1"/>
-        <v>65536</v>
-      </c>
-      <c r="D39" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>20ns</v>
-      </c>
-      <c r="E39" s="18">
-        <f t="shared" si="1"/>
-        <v>0.99661</v>
-      </c>
-      <c r="F39" s="19">
-        <f t="shared" ref="F39:F41" si="10">E39/E$38</f>
-        <v>0.75426473927192916</v>
-      </c>
-      <c r="G39" s="18">
-        <f t="shared" si="2"/>
-        <v>25.25</v>
-      </c>
-      <c r="H39" s="19">
-        <f t="shared" ref="H39:H41" si="11">G39/G$38</f>
-        <v>0.31041392621368769</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v>ConcurrentBag&lt;SplitVec&lt;_, Linear&gt;&gt;::extend</v>
-      </c>
-      <c r="C40" s="16">
-        <f t="shared" si="1"/>
-        <v>65536</v>
-      </c>
-      <c r="D40" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>20ns</v>
-      </c>
-      <c r="E40" s="18">
-        <f t="shared" si="1"/>
-        <v>1.0018</v>
-      </c>
-      <c r="F40" s="19">
-        <f t="shared" si="10"/>
-        <v>0.7581926890183911</v>
-      </c>
-      <c r="G40" s="18">
-        <f t="shared" si="2"/>
-        <v>29.224</v>
-      </c>
-      <c r="H40" s="19">
-        <f t="shared" si="11"/>
-        <v>0.35926877543242808</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>ConcurrentBag&lt;FixedVec&lt;_&gt;&gt;::extend</v>
-      </c>
-      <c r="C41" s="3">
-        <f t="shared" si="1"/>
-        <v>65536</v>
-      </c>
-      <c r="D41" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>20ns</v>
-      </c>
-      <c r="E41" s="9">
-        <f t="shared" si="1"/>
-        <v>0.80808000000000002</v>
-      </c>
-      <c r="F41" s="7">
-        <f t="shared" si="10"/>
-        <v>0.61157950503292213</v>
-      </c>
-      <c r="G41" s="9">
-        <f t="shared" si="2"/>
-        <v>25.58</v>
-      </c>
-      <c r="H41" s="7">
-        <f t="shared" si="11"/>
-        <v>0.31447082109093588</v>
-      </c>
-    </row>
+        <v>0.21394445079437652</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
   </mergeCells>
-  <conditionalFormatting sqref="F26:F29">
-    <cfRule type="dataBar" priority="8">
+  <conditionalFormatting sqref="F18:F21">
+    <cfRule type="dataBar" priority="4">
       <dataBar showValue="0">
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FFFFB628"/>
+        <color theme="7"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{CD93E360-D953-42E5-8FEE-5146481F67F0}</x14:id>
+          <x14:id>{2957D239-BCD4-45F5-8859-242251531A0B}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30:F33">
-    <cfRule type="dataBar" priority="7">
+  <conditionalFormatting sqref="F22:F25">
+    <cfRule type="dataBar" priority="3">
       <dataBar showValue="0">
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FFFFB628"/>
+        <color rgb="FFFF3300"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D60CDE1A-266F-46C2-9B8C-3C04E03CBD9A}</x14:id>
+          <x14:id>{1A28700B-E465-4EB4-8FEE-7612FD1016C3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F34:F37">
-    <cfRule type="dataBar" priority="6">
+  <conditionalFormatting sqref="H18:H21">
+    <cfRule type="dataBar" priority="2">
       <dataBar showValue="0">
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FFFFB628"/>
+        <color theme="7"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6F09E420-AA1D-4AC2-9D03-E8F1B78836A4}</x14:id>
+          <x14:id>{EFD277FB-0233-4310-96A1-652DC21423DE}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F38:F41">
-    <cfRule type="dataBar" priority="5">
-      <dataBar showValue="0">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFB628"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{187D5E21-996C-451F-8DB6-E8D6EA72FB9E}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H26:H29">
-    <cfRule type="dataBar" priority="4">
-      <dataBar showValue="0">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFB628"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{AF343617-ADE9-4CE5-AA1F-9E56E9053FA1}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30:H33">
-    <cfRule type="dataBar" priority="3">
-      <dataBar showValue="0">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFB628"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E805AB57-F299-4FA2-AC8D-B1DE7C32D8FA}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H34:H37">
-    <cfRule type="dataBar" priority="2">
-      <dataBar showValue="0">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFB628"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{89FB1955-5879-416E-97E1-F976E09782C2}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H38:H41">
+  <conditionalFormatting sqref="H22:H25">
     <cfRule type="dataBar" priority="1">
       <dataBar showValue="0">
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FFFFB628"/>
+        <color rgb="FFFF3300"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{031F4E5F-6E3F-4C4A-8390-64B7A55B289C}</x14:id>
+          <x14:id>{860C8C02-C98D-4E5B-AE47-C78A98AE937F}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="F18:F25" formula="1"/>
+  </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{CD93E360-D953-42E5-8FEE-5146481F67F0}">
+          <x14:cfRule type="dataBar" id="{2957D239-BCD4-45F5-8859-242251531A0B}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2727,10 +2090,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F26:F29</xm:sqref>
+          <xm:sqref>F18:F21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D60CDE1A-266F-46C2-9B8C-3C04E03CBD9A}">
+          <x14:cfRule type="dataBar" id="{1A28700B-E465-4EB4-8FEE-7612FD1016C3}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2738,10 +2101,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F30:F33</xm:sqref>
+          <xm:sqref>F22:F25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6F09E420-AA1D-4AC2-9D03-E8F1B78836A4}">
+          <x14:cfRule type="dataBar" id="{EFD277FB-0233-4310-96A1-652DC21423DE}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2749,10 +2112,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F34:F37</xm:sqref>
+          <xm:sqref>H18:H21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{187D5E21-996C-451F-8DB6-E8D6EA72FB9E}">
+          <x14:cfRule type="dataBar" id="{860C8C02-C98D-4E5B-AE47-C78A98AE937F}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2760,51 +2123,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F38:F41</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{AF343617-ADE9-4CE5-AA1F-9E56E9053FA1}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H26:H29</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E805AB57-F299-4FA2-AC8D-B1DE7C32D8FA}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H30:H33</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{89FB1955-5879-416E-97E1-F976E09782C2}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H34:H37</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{031F4E5F-6E3F-4C4A-8390-64B7A55B289C}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H38:H41</xm:sqref>
+          <xm:sqref>H22:H25</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2816,19 +2135,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF97F42C-248E-4367-AF13-B78D57BAABDB}">
   <dimension ref="B1:I58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="47.140625" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" hidden="1" customWidth="1"/>
-    <col min="5" max="8" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="47.109375" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" hidden="1" customWidth="1"/>
+    <col min="5" max="8" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2843,7 +2162,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -2855,14 +2174,14 @@
       </c>
       <c r="E2">
         <f>collect_with_extend!E2</f>
-        <v>0.26207999999999998</v>
+        <v>4.2633000000000001</v>
       </c>
       <c r="G2">
         <f>collect_with_extend!G2</f>
-        <v>19.791</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7.1547999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -2879,7 +2198,7 @@
         <v>12.462</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -2896,7 +2215,7 @@
         <v>11.132999999999999</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>12</v>
       </c>
@@ -2913,7 +2232,7 @@
         <v>8.7776999999999994</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>13</v>
       </c>
@@ -2930,7 +2249,7 @@
         <v>8.3180999999999994</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="20" t="s">
         <v>14</v>
       </c>
@@ -2950,7 +2269,7 @@
       <c r="H7" s="20"/>
       <c r="I7" s="20"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" t="str">
         <f>B2</f>
         <v>rayon</v>
@@ -2961,12 +2280,12 @@
       <c r="D8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="24">
         <v>0.54851000000000005</v>
       </c>
       <c r="G8" s="22"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" t="str">
         <f>B3</f>
         <v>ConcurrentBag (extend-batch=1)</v>
@@ -2977,12 +2296,12 @@
       <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="24">
         <v>5.4215999999999998</v>
       </c>
       <c r="G9" s="22"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" t="str">
         <f t="shared" ref="B10:B25" si="0">B4</f>
         <v>ConcurrentBag (extend-batch=2)</v>
@@ -2993,12 +2312,12 @@
       <c r="D10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="24">
         <v>2.6027</v>
       </c>
       <c r="G10" s="22"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" t="str">
         <f t="shared" si="0"/>
         <v>ConcurrentBag (extend-batch=4)</v>
@@ -3009,12 +2328,12 @@
       <c r="D11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="24">
         <v>1.2473000000000001</v>
       </c>
       <c r="G11" s="22"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" t="str">
         <f t="shared" si="0"/>
         <v>ConcurrentBag (extend-batch=16)</v>
@@ -3025,12 +2344,12 @@
       <c r="D12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="24">
         <v>0.52783999999999998</v>
       </c>
       <c r="G12" s="22"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="20" t="str">
         <f t="shared" si="0"/>
         <v>ConcurrentBag (extend-batch=64)</v>
@@ -3049,7 +2368,7 @@
       <c r="H13" s="20"/>
       <c r="I13" s="20"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" t="str">
         <f t="shared" si="0"/>
         <v>rayon</v>
@@ -3061,16 +2380,16 @@
       <c r="D14" s="1">
         <v>0</v>
       </c>
-      <c r="E14">
-        <f>collect_with_extend!E14</f>
-        <v>1.3212999999999999</v>
-      </c>
-      <c r="G14">
-        <f>collect_with_extend!G14</f>
-        <v>81.343000000000004</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E14" t="e">
+        <f>collect_with_extend!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G14" t="e">
+        <f>collect_with_extend!#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" t="str">
         <f t="shared" si="0"/>
         <v>ConcurrentBag (extend-batch=1)</v>
@@ -3082,14 +2401,14 @@
       <c r="D15" s="1">
         <v>0</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="24">
         <v>15.512</v>
       </c>
       <c r="G15" s="22">
         <v>59.893000000000001</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" t="str">
         <f t="shared" si="0"/>
         <v>ConcurrentBag (extend-batch=2)</v>
@@ -3101,14 +2420,14 @@
       <c r="D16" s="1">
         <v>0</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="24">
         <v>12.02</v>
       </c>
       <c r="G16" s="22">
         <v>47.826999999999998</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" t="str">
         <f t="shared" si="0"/>
         <v>ConcurrentBag (extend-batch=4)</v>
@@ -3120,14 +2439,14 @@
       <c r="D17" s="1">
         <v>0</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="24">
         <v>4.9581999999999997</v>
       </c>
       <c r="G17" s="22">
         <v>44.576000000000001</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" t="str">
         <f t="shared" si="0"/>
         <v>ConcurrentBag (extend-batch=16)</v>
@@ -3139,14 +2458,14 @@
       <c r="D18" s="1">
         <v>0</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="24">
         <v>2.0644999999999998</v>
       </c>
       <c r="G18" s="22">
         <v>43.219000000000001</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="20" t="str">
         <f t="shared" si="0"/>
         <v>ConcurrentBag (extend-batch=64)</v>
@@ -3168,7 +2487,7 @@
       <c r="H19" s="20"/>
       <c r="I19" s="20"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" t="str">
         <f t="shared" si="0"/>
         <v>rayon</v>
@@ -3180,12 +2499,12 @@
       <c r="D20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="27">
+      <c r="E20" s="24">
         <v>1.2231000000000001</v>
       </c>
       <c r="G20" s="22"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" t="str">
         <f t="shared" si="0"/>
         <v>ConcurrentBag (extend-batch=1)</v>
@@ -3197,12 +2516,12 @@
       <c r="D21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="27">
+      <c r="E21" s="24">
         <v>22.484000000000002</v>
       </c>
       <c r="G21" s="22"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" t="str">
         <f t="shared" si="0"/>
         <v>ConcurrentBag (extend-batch=2)</v>
@@ -3214,12 +2533,12 @@
       <c r="D22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="27">
+      <c r="E22" s="24">
         <v>9.7194000000000003</v>
       </c>
       <c r="G22" s="22"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" t="str">
         <f t="shared" si="0"/>
         <v>ConcurrentBag (extend-batch=4)</v>
@@ -3231,12 +2550,12 @@
       <c r="D23" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="27">
+      <c r="E23" s="24">
         <v>5.0632000000000001</v>
       </c>
       <c r="G23" s="22"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" t="str">
         <f t="shared" si="0"/>
         <v>ConcurrentBag (extend-batch=16)</v>
@@ -3248,12 +2567,12 @@
       <c r="D24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="27">
+      <c r="E24" s="24">
         <v>1.4888999999999999</v>
       </c>
       <c r="G24" s="22"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="20" t="str">
         <f t="shared" si="0"/>
         <v>ConcurrentBag (extend-batch=64)</v>
@@ -3273,8 +2592,8 @@
       <c r="H25" s="20"/>
       <c r="I25" s="20"/>
     </row>
-    <row r="33" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="2:8" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="2:8" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="12" t="s">
         <v>9</v>
       </c>
@@ -3285,16 +2604,16 @@
         <f>D1</f>
         <v>workload</v>
       </c>
-      <c r="E34" s="24" t="s">
+      <c r="E34" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="F34" s="25"/>
-      <c r="G34" s="24" t="s">
+      <c r="F34" s="50"/>
+      <c r="G34" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="H34" s="26"/>
-    </row>
-    <row r="35" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H34" s="51"/>
+    </row>
+    <row r="35" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="4" t="str">
         <f>B2</f>
         <v>rayon</v>
@@ -3309,7 +2628,7 @@
       </c>
       <c r="E35" s="8">
         <f>E2</f>
-        <v>0.26207999999999998</v>
+        <v>4.2633000000000001</v>
       </c>
       <c r="F35" s="5">
         <f>E35/E$35</f>
@@ -3317,14 +2636,14 @@
       </c>
       <c r="G35" s="8">
         <f>G2</f>
-        <v>19.791</v>
+        <v>7.1547999999999998</v>
       </c>
       <c r="H35" s="5">
         <f>G35/G$35</f>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="15" t="str">
         <f>B3</f>
         <v>ConcurrentBag (extend-batch=1)</v>
@@ -3342,8 +2661,8 @@
         <v>3.8765999999999998</v>
       </c>
       <c r="F36" s="19">
-        <f t="shared" ref="F36:F40" si="3">E36/E$35</f>
-        <v>14.791666666666668</v>
+        <f t="shared" ref="F36:F39" si="3">E36/E$35</f>
+        <v>0.90929561607205678</v>
       </c>
       <c r="G36" s="18">
         <f t="shared" ref="G36:G58" si="4">G3</f>
@@ -3351,10 +2670,10 @@
       </c>
       <c r="H36" s="19">
         <f t="shared" ref="H36:H40" si="5">G36/G$35</f>
-        <v>0.62968015764741547</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1.7417677642980935</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="15" t="str">
         <f t="shared" ref="B37:C58" si="6">B4</f>
         <v>ConcurrentBag (extend-batch=2)</v>
@@ -3373,7 +2692,7 @@
       </c>
       <c r="F37" s="19">
         <f t="shared" si="3"/>
-        <v>9.46352258852259</v>
+        <v>0.58175591677808269</v>
       </c>
       <c r="G37" s="18">
         <f t="shared" si="4"/>
@@ -3381,10 +2700,10 @@
       </c>
       <c r="H37" s="19">
         <f t="shared" si="5"/>
-        <v>0.56252842201000453</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1.5560183373399674</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="15" t="str">
         <f t="shared" si="6"/>
         <v>ConcurrentBag (extend-batch=4)</v>
@@ -3403,7 +2722,7 @@
       </c>
       <c r="F38" s="19">
         <f t="shared" si="3"/>
-        <v>5.728021978021979</v>
+        <v>0.35212159594680181</v>
       </c>
       <c r="G38" s="18">
         <f t="shared" si="4"/>
@@ -3411,10 +2730,10 @@
       </c>
       <c r="H38" s="19">
         <f t="shared" si="5"/>
-        <v>0.44351978171896311</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1.226826745681221</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="15" t="str">
         <f t="shared" si="6"/>
         <v>ConcurrentBag (extend-batch=16)</v>
@@ -3433,7 +2752,7 @@
       </c>
       <c r="F39" s="19">
         <f t="shared" si="3"/>
-        <v>1.7569826007326008</v>
+        <v>0.10800788121877418</v>
       </c>
       <c r="G39" s="18">
         <f t="shared" si="4"/>
@@ -3441,10 +2760,10 @@
       </c>
       <c r="H39" s="19">
         <f t="shared" si="5"/>
-        <v>0.42029710474458082</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.1625901492704198</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="6" t="str">
         <f t="shared" si="6"/>
         <v>ConcurrentBag (extend-batch=64)</v>
@@ -3463,7 +2782,7 @@
       </c>
       <c r="F40" s="7">
         <f>E40/E$35</f>
-        <v>1.4557768620268621</v>
+        <v>8.9491708301081316E-2</v>
       </c>
       <c r="G40" s="9">
         <f t="shared" si="4"/>
@@ -3471,10 +2790,10 @@
       </c>
       <c r="H40" s="7">
         <f t="shared" si="5"/>
-        <v>0.39245616694457075</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1.0855789120590373</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="4" t="str">
         <f t="shared" si="6"/>
         <v>rayon</v>
@@ -3504,7 +2823,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="2:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="15" t="str">
         <f t="shared" si="6"/>
         <v>ConcurrentBag (extend-batch=1)</v>
@@ -3534,7 +2853,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="2:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="15" t="str">
         <f t="shared" si="6"/>
         <v>ConcurrentBag (extend-batch=2)</v>
@@ -3564,7 +2883,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="2:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="15" t="str">
         <f t="shared" si="6"/>
         <v>ConcurrentBag (extend-batch=4)</v>
@@ -3594,7 +2913,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="2:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="15" t="str">
         <f t="shared" si="6"/>
         <v>ConcurrentBag (extend-batch=16)</v>
@@ -3624,7 +2943,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="2:8" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:8" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46" s="6" t="str">
         <f t="shared" si="6"/>
         <v>ConcurrentBag (extend-batch=64)</v>
@@ -3654,7 +2973,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="4" t="str">
         <f t="shared" si="6"/>
         <v>rayon</v>
@@ -3667,24 +2986,24 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E47" s="8">
-        <f t="shared" si="2"/>
-        <v>1.3212999999999999</v>
-      </c>
-      <c r="F47" s="5">
+      <c r="E47" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="F47" s="5" t="e">
         <f>E47/E$47</f>
-        <v>1</v>
-      </c>
-      <c r="G47" s="8">
+        <v>#REF!</v>
+      </c>
+      <c r="G47" s="8" t="e">
         <f t="shared" si="4"/>
-        <v>81.343000000000004</v>
-      </c>
-      <c r="H47" s="5">
+        <v>#REF!</v>
+      </c>
+      <c r="H47" s="5" t="e">
         <f>G47/G$47</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="15" t="str">
         <f t="shared" si="6"/>
         <v>ConcurrentBag (extend-batch=1)</v>
@@ -3701,20 +3020,20 @@
         <f t="shared" si="2"/>
         <v>15.512</v>
       </c>
-      <c r="F48" s="19">
+      <c r="F48" s="19" t="e">
         <f t="shared" ref="F48:F52" si="9">E48/E$47</f>
-        <v>11.739953076515555</v>
+        <v>#REF!</v>
       </c>
       <c r="G48" s="18">
         <f t="shared" si="4"/>
         <v>59.893000000000001</v>
       </c>
-      <c r="H48" s="19">
+      <c r="H48" s="19" t="e">
         <f t="shared" ref="H48:H52" si="10">G48/G$47</f>
-        <v>0.7363018329788672</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="15" t="str">
         <f t="shared" si="6"/>
         <v>ConcurrentBag (extend-batch=2)</v>
@@ -3731,20 +3050,20 @@
         <f t="shared" si="2"/>
         <v>12.02</v>
       </c>
-      <c r="F49" s="19">
+      <c r="F49" s="19" t="e">
         <f t="shared" si="9"/>
-        <v>9.0971013395897984</v>
+        <v>#REF!</v>
       </c>
       <c r="G49" s="18">
         <f t="shared" si="4"/>
         <v>47.826999999999998</v>
       </c>
-      <c r="H49" s="19">
+      <c r="H49" s="19" t="e">
         <f t="shared" si="10"/>
-        <v>0.58796700392166501</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="15" t="str">
         <f t="shared" si="6"/>
         <v>ConcurrentBag (extend-batch=4)</v>
@@ -3761,20 +3080,20 @@
         <f t="shared" si="2"/>
         <v>4.9581999999999997</v>
       </c>
-      <c r="F50" s="19">
+      <c r="F50" s="19" t="e">
         <f t="shared" si="9"/>
-        <v>3.7525164610610764</v>
+        <v>#REF!</v>
       </c>
       <c r="G50" s="18">
         <f t="shared" si="4"/>
         <v>44.576000000000001</v>
       </c>
-      <c r="H50" s="19">
+      <c r="H50" s="19" t="e">
         <f t="shared" si="10"/>
-        <v>0.54800044257035019</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="15" t="str">
         <f t="shared" si="6"/>
         <v>ConcurrentBag (extend-batch=16)</v>
@@ -3791,20 +3110,20 @@
         <f t="shared" si="2"/>
         <v>2.0644999999999998</v>
       </c>
-      <c r="F51" s="19">
+      <c r="F51" s="19" t="e">
         <f t="shared" si="9"/>
-        <v>1.5624763490501778</v>
+        <v>#REF!</v>
       </c>
       <c r="G51" s="18">
         <f t="shared" si="4"/>
         <v>43.219000000000001</v>
       </c>
-      <c r="H51" s="19">
+      <c r="H51" s="19" t="e">
         <f t="shared" si="10"/>
-        <v>0.531317999090272</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B52" s="6" t="str">
         <f t="shared" si="6"/>
         <v>ConcurrentBag (extend-batch=64)</v>
@@ -3821,20 +3140,20 @@
         <f t="shared" si="2"/>
         <v>0.80408000000000002</v>
       </c>
-      <c r="F52" s="7">
+      <c r="F52" s="7" t="e">
         <f t="shared" si="9"/>
-        <v>0.60855218345568762</v>
+        <v>#REF!</v>
       </c>
       <c r="G52" s="9">
         <f t="shared" si="4"/>
         <v>42.152000000000001</v>
       </c>
-      <c r="H52" s="7">
+      <c r="H52" s="7" t="e">
         <f t="shared" si="10"/>
-        <v>0.51820070565383625</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="4" t="str">
         <f t="shared" si="6"/>
         <v>rayon</v>
@@ -3864,7 +3183,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="54" spans="2:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="15" t="str">
         <f t="shared" si="6"/>
         <v>ConcurrentBag (extend-batch=1)</v>
@@ -3894,7 +3213,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="55" spans="2:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="15" t="str">
         <f t="shared" si="6"/>
         <v>ConcurrentBag (extend-batch=2)</v>
@@ -3924,7 +3243,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="56" spans="2:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="15" t="str">
         <f t="shared" si="6"/>
         <v>ConcurrentBag (extend-batch=4)</v>
@@ -3954,7 +3273,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="57" spans="2:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="15" t="str">
         <f t="shared" si="6"/>
         <v>ConcurrentBag (extend-batch=16)</v>
@@ -3984,7 +3303,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="58" spans="2:8" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:8" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B58" s="6" t="str">
         <f t="shared" si="6"/>
         <v>ConcurrentBag (extend-batch=64)</v>

--- a/benches/results/collect.xlsx
+++ b/benches/results/collect.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\uarikan\repos\orx\orx-concurrent-bag\benches\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9018F325-938E-43B5-ADC1-924CC644F2DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16FF053-C2F2-4DA4-9261-54925FF80878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="25800" windowHeight="21000" activeTab="1" xr2:uid="{201707E4-C870-4993-88CE-4A7BD9846E2B}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="26010" windowHeight="20970" activeTab="1" xr2:uid="{201707E4-C870-4993-88CE-4A7BD9846E2B}"/>
   </bookViews>
   <sheets>
     <sheet name="collect_with_push" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="22">
   <si>
     <t>number of elements</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>ConcurrentBag&lt;FixedVec&lt;_&gt;&gt;::extend</t>
+  </si>
+  <si>
+    <t>AppendOnlyVec::push</t>
   </si>
 </sst>
 </file>
@@ -174,7 +177,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -348,58 +351,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top style="thick">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top style="thick">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right style="medium">
-        <color theme="1" tint="0.14993743705557422"/>
-      </right>
-      <top style="thick">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1" tint="0.14993743705557422"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top style="thick">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="0" tint="-0.24994659260841701"/>
       </left>
@@ -409,17 +360,6 @@
       <top style="thick">
         <color theme="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -435,58 +375,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right style="medium">
-        <color theme="1" tint="0.14993743705557422"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1" tint="0.14993743705557422"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="0" tint="-0.24994659260841701"/>
       </left>
@@ -494,36 +382,6 @@
         <color theme="1"/>
       </right>
       <top/>
-      <bottom style="thick">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thick">
-        <color theme="1"/>
-      </top>
-      <bottom style="thick">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thick">
-        <color theme="1"/>
-      </top>
       <bottom style="thick">
         <color theme="1"/>
       </bottom>
@@ -544,11 +402,284 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thick">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thick">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thick">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thick">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thick">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thick">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thick">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thick">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -614,87 +745,100 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1017,10 +1161,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD7FC78D-902C-4DF1-8F50-38A3D8921053}">
-  <dimension ref="B1:I26"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1031,7 +1175,7 @@
     <col min="5" max="8" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1046,420 +1190,602 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>65536</v>
+        <v>32768</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>3.7170999999999998</v>
+        <v>5.1227999999999998</v>
       </c>
       <c r="G2" s="22">
-        <v>7.4029999999999996</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+        <v>6.5256999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3">
+        <v>32768</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3">
+        <v>6.0153999999999996</v>
+      </c>
+      <c r="G3" s="22">
+        <v>6.0011000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="C3">
-        <v>65536</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>2.7392099999999999</v>
-      </c>
-      <c r="G3" s="22">
-        <v>3.8266</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="C4">
+        <v>32768</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1.7603</v>
+      </c>
+      <c r="G4" s="22">
+        <v>1.8628</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C4">
-        <v>65536</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>2.9256000000000002</v>
-      </c>
-      <c r="G4" s="22">
-        <v>3.5007000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="20" t="s">
+      <c r="C5">
+        <v>32768</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1.6412</v>
+      </c>
+      <c r="G5" s="22">
+        <v>3.2086999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="20">
-        <v>65536</v>
-      </c>
-      <c r="D5" s="21">
-        <v>0</v>
-      </c>
-      <c r="E5" s="20">
-        <v>2.4264999999999999</v>
-      </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="23">
-        <v>3.3963000000000001</v>
-      </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" t="str">
+      <c r="C6" s="20">
+        <v>32768</v>
+      </c>
+      <c r="D6" s="21">
+        <v>0</v>
+      </c>
+      <c r="E6" s="20">
+        <v>1.2775000000000001</v>
+      </c>
+      <c r="F6" s="20"/>
+      <c r="G6" s="23">
+        <v>2.6574</v>
+      </c>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B7" t="str">
         <f>B2</f>
         <v>rayon</v>
       </c>
-      <c r="C6">
-        <v>262144</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>5.3632999999999997</v>
-      </c>
-      <c r="G6" s="22">
-        <v>26.773</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" t="str">
-        <f t="shared" ref="B7:B9" si="0">B3</f>
+      <c r="C7">
+        <v>131072</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="24">
+        <v>6.5094000000000003</v>
+      </c>
+      <c r="G7" s="22">
+        <v>16.443999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B8" t="str">
+        <f>B3</f>
+        <v>AppendOnlyVec::push</v>
+      </c>
+      <c r="C8">
+        <v>131072</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="24">
+        <v>24.431999999999999</v>
+      </c>
+      <c r="G8" s="22">
+        <v>24.885000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B9" t="str">
+        <f>B4</f>
         <v>ConcurrentBag&lt;SplitVec&lt;_, Doubling&gt;&gt;::push</v>
       </c>
-      <c r="C7">
-        <v>262144</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>9.5039999999999996</v>
-      </c>
-      <c r="G7" s="22">
-        <v>16.623000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" t="str">
-        <f t="shared" si="0"/>
+      <c r="C9">
+        <v>131072</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="24">
+        <v>7.4745999999999997</v>
+      </c>
+      <c r="G9" s="22">
+        <v>8.4802</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B10" t="str">
+        <f>B5</f>
         <v>ConcurrentBag&lt;SplitVec&lt;_, Linear&gt;&gt;::push</v>
       </c>
-      <c r="C8">
-        <v>262144</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>10.89</v>
-      </c>
-      <c r="G8" s="22">
-        <v>15.903</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="20" t="str">
-        <f t="shared" si="0"/>
+      <c r="C10">
+        <v>131072</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="24">
+        <v>6.7279</v>
+      </c>
+      <c r="G10" s="22">
+        <v>12.814</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="20" t="str">
+        <f>B6</f>
         <v>ConcurrentBag&lt;FixedVec&lt;_&gt;&gt;::push</v>
       </c>
-      <c r="C9" s="20">
-        <v>262144</v>
-      </c>
-      <c r="D9" s="21">
-        <v>0</v>
-      </c>
-      <c r="E9" s="20">
-        <v>9.4459</v>
-      </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20">
-        <v>15.135999999999999</v>
-      </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-    </row>
-    <row r="16" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="17" spans="2:8" ht="39.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="25" t="s">
+      <c r="C11" s="20">
+        <v>131072</v>
+      </c>
+      <c r="D11" s="21">
+        <v>0</v>
+      </c>
+      <c r="E11" s="20">
+        <v>5.3331999999999997</v>
+      </c>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20">
+        <v>12.677</v>
+      </c>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="56"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="56"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+    </row>
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="56"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+    </row>
+    <row r="19" spans="1:9" ht="39.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="56"/>
+      <c r="B19" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="27" t="str">
-        <f t="shared" ref="D17:D25" si="1">D1</f>
+      <c r="C19" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="36" t="str">
+        <f>D1</f>
         <v>workload</v>
       </c>
-      <c r="E17" s="46" t="s">
+      <c r="E19" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="47"/>
-      <c r="G17" s="46" t="s">
+      <c r="F19" s="49"/>
+      <c r="G19" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="48"/>
-    </row>
-    <row r="18" spans="2:8" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="28" t="str">
+      <c r="H19" s="28"/>
+      <c r="I19" s="56"/>
+    </row>
+    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="56"/>
+      <c r="B20" s="33" t="str">
         <f>B2</f>
         <v>rayon</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C20" s="45">
         <f>C2</f>
-        <v>65536</v>
-      </c>
-      <c r="D18" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E18" s="31">
-        <f t="shared" ref="E18:E25" si="2">E2</f>
-        <v>3.7170999999999998</v>
-      </c>
-      <c r="F18" s="32">
-        <f>E18/E$18</f>
+        <v>32768</v>
+      </c>
+      <c r="D20" s="37">
+        <f>D2</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="50">
+        <f t="shared" ref="E20" si="0">E2</f>
+        <v>5.1227999999999998</v>
+      </c>
+      <c r="F20" s="51">
+        <f>E20/E$20</f>
         <v>1</v>
       </c>
-      <c r="G18" s="31">
-        <f t="shared" ref="G18:G25" si="3">G2</f>
-        <v>7.4029999999999996</v>
-      </c>
-      <c r="H18" s="33">
-        <f>G18/G$18</f>
+      <c r="G20" s="41">
+        <f t="shared" ref="G20" si="1">G2</f>
+        <v>6.5256999999999996</v>
+      </c>
+      <c r="H20" s="25">
+        <f>G20/G$20</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="34" t="str">
-        <f t="shared" ref="B19:B25" si="4">B3</f>
+      <c r="I20" s="56"/>
+    </row>
+    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="56"/>
+      <c r="B21" s="34" t="str">
+        <f>B3</f>
+        <v>AppendOnlyVec::push</v>
+      </c>
+      <c r="C21" s="46">
+        <f>C3</f>
+        <v>32768</v>
+      </c>
+      <c r="D21" s="38"/>
+      <c r="E21" s="52">
+        <f>E3</f>
+        <v>6.0153999999999996</v>
+      </c>
+      <c r="F21" s="53">
+        <f t="shared" ref="F21:F24" si="2">E21/E$20</f>
+        <v>1.1742406496447255</v>
+      </c>
+      <c r="G21" s="42">
+        <f>G3</f>
+        <v>6.0011000000000001</v>
+      </c>
+      <c r="H21" s="26">
+        <f t="shared" ref="H21:H24" si="3">G21/G$20</f>
+        <v>0.91961015676479163</v>
+      </c>
+      <c r="I21" s="56"/>
+    </row>
+    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="56"/>
+      <c r="B22" s="34" t="str">
+        <f>B4</f>
         <v>ConcurrentBag&lt;SplitVec&lt;_, Doubling&gt;&gt;::push</v>
       </c>
-      <c r="C19" s="35">
-        <f t="shared" ref="C19:C25" si="5">C3</f>
-        <v>65536</v>
-      </c>
-      <c r="D19" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="37">
-        <f t="shared" si="2"/>
-        <v>2.7392099999999999</v>
-      </c>
-      <c r="F19" s="38">
-        <f t="shared" ref="F19:F21" si="6">E19/E$18</f>
-        <v>0.7369212558177074</v>
-      </c>
-      <c r="G19" s="37">
+      <c r="C22" s="46">
+        <f>C4</f>
+        <v>32768</v>
+      </c>
+      <c r="D22" s="38">
+        <f>D4</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="52">
+        <f>E4</f>
+        <v>1.7603</v>
+      </c>
+      <c r="F22" s="53">
+        <f t="shared" si="2"/>
+        <v>0.34362067619270714</v>
+      </c>
+      <c r="G22" s="42">
+        <f>G4</f>
+        <v>1.8628</v>
+      </c>
+      <c r="H22" s="26">
         <f t="shared" si="3"/>
-        <v>3.8266</v>
-      </c>
-      <c r="H19" s="39">
-        <f t="shared" ref="H19:H21" si="7">G19/G$18</f>
-        <v>0.51689855464001089</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="34" t="str">
+        <v>0.28545596640973386</v>
+      </c>
+      <c r="I22" s="56"/>
+    </row>
+    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="56"/>
+      <c r="B23" s="34" t="str">
+        <f>B5</f>
+        <v>ConcurrentBag&lt;SplitVec&lt;_, Linear&gt;&gt;::push</v>
+      </c>
+      <c r="C23" s="46">
+        <f>C5</f>
+        <v>32768</v>
+      </c>
+      <c r="D23" s="38">
+        <f>D5</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="52">
+        <f>E5</f>
+        <v>1.6412</v>
+      </c>
+      <c r="F23" s="53">
+        <f t="shared" si="2"/>
+        <v>0.32037167174201608</v>
+      </c>
+      <c r="G23" s="42">
+        <f>G5</f>
+        <v>3.2086999999999999</v>
+      </c>
+      <c r="H23" s="26">
+        <f t="shared" si="3"/>
+        <v>0.49170203962793263</v>
+      </c>
+      <c r="I23" s="56"/>
+    </row>
+    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="56"/>
+      <c r="B24" s="35" t="str">
+        <f>B6</f>
+        <v>ConcurrentBag&lt;FixedVec&lt;_&gt;&gt;::push</v>
+      </c>
+      <c r="C24" s="47">
+        <f>C6</f>
+        <v>32768</v>
+      </c>
+      <c r="D24" s="39">
+        <f>D6</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="54">
+        <f>E6</f>
+        <v>1.2775000000000001</v>
+      </c>
+      <c r="F24" s="55">
+        <f t="shared" si="2"/>
+        <v>0.24937534161005703</v>
+      </c>
+      <c r="G24" s="43">
+        <f>G6</f>
+        <v>2.6574</v>
+      </c>
+      <c r="H24" s="27">
+        <f t="shared" si="3"/>
+        <v>0.40722068130622002</v>
+      </c>
+      <c r="I24" s="56"/>
+    </row>
+    <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="56"/>
+      <c r="B25" s="33" t="str">
+        <f>B7</f>
+        <v>rayon</v>
+      </c>
+      <c r="C25" s="45">
+        <f>C7</f>
+        <v>131072</v>
+      </c>
+      <c r="D25" s="37">
+        <f>D7</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="50">
+        <f>E7</f>
+        <v>6.5094000000000003</v>
+      </c>
+      <c r="F25" s="51">
+        <f>E25/E$25</f>
+        <v>1</v>
+      </c>
+      <c r="G25" s="41">
+        <f>G7</f>
+        <v>16.443999999999999</v>
+      </c>
+      <c r="H25" s="25">
+        <f>G25/G$25</f>
+        <v>1</v>
+      </c>
+      <c r="I25" s="56"/>
+    </row>
+    <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="56"/>
+      <c r="B26" s="34" t="str">
+        <f>B8</f>
+        <v>AppendOnlyVec::push</v>
+      </c>
+      <c r="C26" s="46">
+        <f>C8</f>
+        <v>131072</v>
+      </c>
+      <c r="D26" s="38"/>
+      <c r="E26" s="52">
+        <f>E8</f>
+        <v>24.431999999999999</v>
+      </c>
+      <c r="F26" s="53">
+        <f t="shared" ref="F26:F29" si="4">E26/E$25</f>
+        <v>3.7533413217808089</v>
+      </c>
+      <c r="G26" s="42">
+        <f>G8</f>
+        <v>24.885000000000002</v>
+      </c>
+      <c r="H26" s="26">
+        <f t="shared" ref="H26:H29" si="5">G26/G$25</f>
+        <v>1.5133179275115545</v>
+      </c>
+      <c r="I26" s="56"/>
+    </row>
+    <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="56"/>
+      <c r="B27" s="34" t="str">
+        <f>B9</f>
+        <v>ConcurrentBag&lt;SplitVec&lt;_, Doubling&gt;&gt;::push</v>
+      </c>
+      <c r="C27" s="46">
+        <f>C9</f>
+        <v>131072</v>
+      </c>
+      <c r="D27" s="38">
+        <f>D9</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="52">
+        <f>E9</f>
+        <v>7.4745999999999997</v>
+      </c>
+      <c r="F27" s="53">
         <f t="shared" si="4"/>
+        <v>1.1482778750729712</v>
+      </c>
+      <c r="G27" s="42">
+        <f>G9</f>
+        <v>8.4802</v>
+      </c>
+      <c r="H27" s="26">
+        <f t="shared" si="5"/>
+        <v>0.51570177572366827</v>
+      </c>
+      <c r="I27" s="56"/>
+    </row>
+    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="56"/>
+      <c r="B28" s="34" t="str">
+        <f>B10</f>
         <v>ConcurrentBag&lt;SplitVec&lt;_, Linear&gt;&gt;::push</v>
       </c>
-      <c r="C20" s="35">
+      <c r="C28" s="46">
+        <f>C10</f>
+        <v>131072</v>
+      </c>
+      <c r="D28" s="38">
+        <f>D10</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="52">
+        <f>E10</f>
+        <v>6.7279</v>
+      </c>
+      <c r="F28" s="53">
+        <f t="shared" si="4"/>
+        <v>1.0335668417980151</v>
+      </c>
+      <c r="G28" s="42">
+        <f>G10</f>
+        <v>12.814</v>
+      </c>
+      <c r="H28" s="26">
         <f t="shared" si="5"/>
-        <v>65536</v>
-      </c>
-      <c r="D20" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="37">
-        <f t="shared" si="2"/>
-        <v>2.9256000000000002</v>
-      </c>
-      <c r="F20" s="38">
-        <f t="shared" si="6"/>
-        <v>0.7870651852250411</v>
-      </c>
-      <c r="G20" s="37">
-        <f t="shared" si="3"/>
-        <v>3.5007000000000001</v>
-      </c>
-      <c r="H20" s="39">
-        <f t="shared" si="7"/>
-        <v>0.47287586113737679</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="40" t="str">
+        <v>0.77925079056190716</v>
+      </c>
+      <c r="I28" s="56"/>
+    </row>
+    <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="56"/>
+      <c r="B29" s="35" t="str">
+        <f>B11</f>
+        <v>ConcurrentBag&lt;FixedVec&lt;_&gt;&gt;::push</v>
+      </c>
+      <c r="C29" s="47">
+        <f>C11</f>
+        <v>131072</v>
+      </c>
+      <c r="D29" s="39">
+        <f>D11</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="54">
+        <f>E11</f>
+        <v>5.3331999999999997</v>
+      </c>
+      <c r="F29" s="55">
         <f t="shared" si="4"/>
-        <v>ConcurrentBag&lt;FixedVec&lt;_&gt;&gt;::push</v>
-      </c>
-      <c r="C21" s="41">
+        <v>0.81930746305343038</v>
+      </c>
+      <c r="G29" s="43">
+        <f>G11</f>
+        <v>12.677</v>
+      </c>
+      <c r="H29" s="27">
         <f t="shared" si="5"/>
-        <v>65536</v>
-      </c>
-      <c r="D21" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E21" s="43">
-        <f t="shared" si="2"/>
-        <v>2.4264999999999999</v>
-      </c>
-      <c r="F21" s="44">
-        <f t="shared" si="6"/>
-        <v>0.65279384466385082</v>
-      </c>
-      <c r="G21" s="43">
-        <f t="shared" si="3"/>
-        <v>3.3963000000000001</v>
-      </c>
-      <c r="H21" s="45">
-        <f t="shared" si="7"/>
-        <v>0.45877347021477782</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="28" t="str">
-        <f t="shared" si="4"/>
-        <v>rayon</v>
-      </c>
-      <c r="C22" s="29">
-        <f t="shared" si="5"/>
-        <v>262144</v>
-      </c>
-      <c r="D22" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E22" s="31">
-        <f t="shared" si="2"/>
-        <v>5.3632999999999997</v>
-      </c>
-      <c r="F22" s="32">
-        <f>E22/E$22</f>
-        <v>1</v>
-      </c>
-      <c r="G22" s="31">
-        <f t="shared" si="3"/>
-        <v>26.773</v>
-      </c>
-      <c r="H22" s="33">
-        <f>G22/G$22</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v>ConcurrentBag&lt;SplitVec&lt;_, Doubling&gt;&gt;::push</v>
-      </c>
-      <c r="C23" s="35">
-        <f t="shared" si="5"/>
-        <v>262144</v>
-      </c>
-      <c r="D23" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E23" s="37">
-        <f t="shared" si="2"/>
-        <v>9.5039999999999996</v>
-      </c>
-      <c r="F23" s="38">
-        <f t="shared" ref="F23:F25" si="8">E23/E$22</f>
-        <v>1.7720433315309605</v>
-      </c>
-      <c r="G23" s="37">
-        <f t="shared" si="3"/>
-        <v>16.623000000000001</v>
-      </c>
-      <c r="H23" s="39">
-        <f t="shared" ref="H23:H25" si="9">G23/G$22</f>
-        <v>0.6208867142270198</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v>ConcurrentBag&lt;SplitVec&lt;_, Linear&gt;&gt;::push</v>
-      </c>
-      <c r="C24" s="35">
-        <f t="shared" si="5"/>
-        <v>262144</v>
-      </c>
-      <c r="D24" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E24" s="37">
-        <f t="shared" si="2"/>
-        <v>10.89</v>
-      </c>
-      <c r="F24" s="38">
-        <f t="shared" si="8"/>
-        <v>2.0304663173792257</v>
-      </c>
-      <c r="G24" s="37">
-        <f t="shared" si="3"/>
-        <v>15.903</v>
-      </c>
-      <c r="H24" s="39">
-        <f t="shared" si="9"/>
-        <v>0.59399394912785275</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="40" t="str">
-        <f t="shared" si="4"/>
-        <v>ConcurrentBag&lt;FixedVec&lt;_&gt;&gt;::push</v>
-      </c>
-      <c r="C25" s="41">
-        <f t="shared" si="5"/>
-        <v>262144</v>
-      </c>
-      <c r="D25" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E25" s="43">
-        <f t="shared" si="2"/>
-        <v>9.4459</v>
-      </c>
-      <c r="F25" s="44">
-        <f t="shared" si="8"/>
-        <v>1.7612104487908564</v>
-      </c>
-      <c r="G25" s="43">
-        <f t="shared" si="3"/>
-        <v>15.135999999999999</v>
-      </c>
-      <c r="H25" s="45">
-        <f t="shared" si="9"/>
-        <v>0.5653456840847122</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+        <v>0.77091948431038682</v>
+      </c>
+      <c r="I29" s="56"/>
+    </row>
+    <row r="30" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="56"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="56"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="56"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="56"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
   </mergeCells>
-  <conditionalFormatting sqref="F18:F21">
+  <conditionalFormatting sqref="F20:F24">
     <cfRule type="dataBar" priority="4">
       <dataBar showValue="0">
         <cfvo type="min"/>
@@ -1473,7 +1799,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22:F25">
+  <conditionalFormatting sqref="F25:F29">
     <cfRule type="dataBar" priority="3">
       <dataBar showValue="0">
         <cfvo type="min"/>
@@ -1487,7 +1813,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H18:H21">
+  <conditionalFormatting sqref="H20:H24">
     <cfRule type="dataBar" priority="2">
       <dataBar showValue="0">
         <cfvo type="min"/>
@@ -1501,7 +1827,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22:H25">
+  <conditionalFormatting sqref="H25:H29">
     <cfRule type="dataBar" priority="1">
       <dataBar showValue="0">
         <cfvo type="min"/>
@@ -1516,9 +1842,9 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="F18:F25" formula="1"/>
+    <ignoredError sqref="F27:F29 F22:F25 F20" formula="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -1532,7 +1858,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F18:F21</xm:sqref>
+          <xm:sqref>F20:F24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E9B70DED-250E-46E6-A5C7-D5F48F2D6F77}">
@@ -1543,7 +1869,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F22:F25</xm:sqref>
+          <xm:sqref>F25:F29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B022FDA3-7EBB-4DC4-A3A9-6D235CB84EE1}">
@@ -1554,7 +1880,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H18:H21</xm:sqref>
+          <xm:sqref>H20:H24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{01B817C0-39B1-4552-A0FE-5DFFA6937FE7}">
@@ -1565,7 +1891,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H22:H25</xm:sqref>
+          <xm:sqref>H25:H29</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -1575,10 +1901,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAC745C-D468-49EC-93AB-3CA0AF648CD4}">
-  <dimension ref="B1:I26"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1609,415 +1935,570 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>65536</v>
+        <v>32768</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>4.2633000000000001</v>
+        <v>5.1844999999999999</v>
       </c>
       <c r="G2" s="22">
-        <v>7.1547999999999998</v>
+        <v>6.0444000000000004</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C3">
-        <v>65536</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
+        <v>32768</v>
+      </c>
+      <c r="D3" s="1"/>
       <c r="E3">
-        <v>0.14282</v>
+        <v>6.5103999999999997</v>
       </c>
       <c r="G3" s="22">
-        <v>1.0018</v>
+        <v>6.4617000000000004</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>32768</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0.16238</v>
+      </c>
+      <c r="G4" s="22">
+        <v>0.48294999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="C4">
-        <v>65536</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0.15784000000000001</v>
-      </c>
-      <c r="G4" s="22">
-        <v>1.0303</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="20" t="s">
+      <c r="C5">
+        <v>32768</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0.15695000000000001</v>
+      </c>
+      <c r="G5" s="22">
+        <v>0.42180000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="20">
-        <v>65536</v>
-      </c>
-      <c r="D5" s="21">
-        <v>0</v>
-      </c>
-      <c r="E5" s="20">
-        <v>0.14305000000000001</v>
-      </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="23">
-        <v>1.0033000000000001</v>
-      </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" t="str">
+      <c r="C6" s="20">
+        <v>32768</v>
+      </c>
+      <c r="D6" s="21">
+        <v>0</v>
+      </c>
+      <c r="E6" s="20">
+        <v>0.15395</v>
+      </c>
+      <c r="F6" s="20"/>
+      <c r="G6" s="23">
+        <v>0.43234</v>
+      </c>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" t="str">
         <f>B2</f>
         <v>rayon</v>
       </c>
-      <c r="C6">
-        <v>262144</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>5.3914</v>
-      </c>
-      <c r="G6" s="22">
-        <v>26.247</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" t="str">
-        <f t="shared" ref="B7:B9" si="0">B3</f>
-        <v>ConcurrentBag&lt;SplitVec&lt;_, Doubling&gt;&gt;::extend</v>
-      </c>
       <c r="C7">
-        <v>262144</v>
+        <v>131072</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.21109</v>
+        <v>6.7740999999999998</v>
       </c>
       <c r="G7" s="22">
-        <v>3.6606999999999998</v>
+        <v>16.777999999999999</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" t="str">
-        <f t="shared" si="0"/>
-        <v>ConcurrentBag&lt;SplitVec&lt;_, Linear&gt;&gt;::extend</v>
+        <f>B3</f>
+        <v>AppendOnlyVec::push</v>
       </c>
       <c r="C8">
-        <v>262144</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
+        <v>131072</v>
+      </c>
+      <c r="D8" s="1"/>
       <c r="E8">
-        <v>0.20188999999999999</v>
+        <v>25.175999999999998</v>
       </c>
       <c r="G8" s="22">
-        <v>3.6219999999999999</v>
+        <v>25.814</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" t="str">
-        <f t="shared" si="0"/>
+        <f>B4</f>
+        <v>ConcurrentBag&lt;SplitVec&lt;_, Doubling&gt;&gt;::extend</v>
+      </c>
+      <c r="C9">
+        <v>131072</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0.23336000000000001</v>
+      </c>
+      <c r="G9" s="22">
+        <v>1.6212</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" t="str">
+        <f>B5</f>
+        <v>ConcurrentBag&lt;SplitVec&lt;_, Linear&gt;&gt;::extend</v>
+      </c>
+      <c r="C10">
+        <v>131072</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0.21779999999999999</v>
+      </c>
+      <c r="G10" s="22">
+        <v>1.3922000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" t="str">
+        <f>B6</f>
         <v>ConcurrentBag&lt;FixedVec&lt;_&gt;&gt;::extend</v>
       </c>
-      <c r="C9" s="20">
-        <v>262144</v>
-      </c>
-      <c r="D9" s="21">
-        <v>0</v>
-      </c>
-      <c r="E9" s="20">
-        <v>0.19142999999999999</v>
-      </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20">
-        <v>5.6154000000000002</v>
-      </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-    </row>
-    <row r="16" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="17" spans="2:8" ht="39.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="25" t="s">
+      <c r="C11" s="20">
+        <v>131072</v>
+      </c>
+      <c r="D11" s="21">
+        <v>0</v>
+      </c>
+      <c r="E11" s="20">
+        <v>0.21037</v>
+      </c>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20">
+        <v>3.5659999999999998</v>
+      </c>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="56"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+    </row>
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="56"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+    </row>
+    <row r="19" spans="1:9" ht="39.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="56"/>
+      <c r="B19" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="27" t="str">
-        <f t="shared" ref="D17:D25" si="1">D1</f>
+      <c r="C19" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="36" t="str">
+        <f>D1</f>
         <v>workload</v>
       </c>
-      <c r="E17" s="46" t="s">
+      <c r="E19" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="47"/>
-      <c r="G17" s="46" t="s">
+      <c r="F19" s="49"/>
+      <c r="G19" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="48"/>
-    </row>
-    <row r="18" spans="2:8" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="28" t="str">
+      <c r="H19" s="28"/>
+      <c r="I19" s="56"/>
+    </row>
+    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="56"/>
+      <c r="B20" s="33" t="str">
         <f>B2</f>
         <v>rayon</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C20" s="45">
         <f>C2</f>
-        <v>65536</v>
-      </c>
-      <c r="D18" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E18" s="31">
-        <f t="shared" ref="E18:E25" si="2">E2</f>
-        <v>4.2633000000000001</v>
-      </c>
-      <c r="F18" s="32">
-        <f>E18/E$18</f>
+        <v>32768</v>
+      </c>
+      <c r="D20" s="37">
+        <f>D2</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="50">
+        <f t="shared" ref="E20" si="0">E2</f>
+        <v>5.1844999999999999</v>
+      </c>
+      <c r="F20" s="51">
+        <f>E20/E$20</f>
         <v>1</v>
       </c>
-      <c r="G18" s="31">
-        <f t="shared" ref="G18:G25" si="3">G2</f>
-        <v>7.1547999999999998</v>
-      </c>
-      <c r="H18" s="33">
-        <f>G18/G$18</f>
+      <c r="G20" s="41">
+        <f t="shared" ref="G20" si="1">G2</f>
+        <v>6.0444000000000004</v>
+      </c>
+      <c r="H20" s="25">
+        <f>G20/G$20</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="34" t="str">
-        <f t="shared" ref="B19:B25" si="4">B3</f>
+      <c r="I20" s="56"/>
+    </row>
+    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="56"/>
+      <c r="B21" s="34" t="str">
+        <f>B3</f>
+        <v>AppendOnlyVec::push</v>
+      </c>
+      <c r="C21" s="46">
+        <f>C3</f>
+        <v>32768</v>
+      </c>
+      <c r="D21" s="38">
+        <f>D3</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="52">
+        <f>E3</f>
+        <v>6.5103999999999997</v>
+      </c>
+      <c r="F21" s="53">
+        <f t="shared" ref="F21:F24" si="2">E21/E$20</f>
+        <v>1.2557430803356158</v>
+      </c>
+      <c r="G21" s="42">
+        <f>G3</f>
+        <v>6.4617000000000004</v>
+      </c>
+      <c r="H21" s="26">
+        <f t="shared" ref="H21:H24" si="3">G21/G$20</f>
+        <v>1.0690391105816954</v>
+      </c>
+      <c r="I21" s="56"/>
+    </row>
+    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="56"/>
+      <c r="B22" s="34" t="str">
+        <f>B4</f>
         <v>ConcurrentBag&lt;SplitVec&lt;_, Doubling&gt;&gt;::extend</v>
       </c>
-      <c r="C19" s="35">
-        <f t="shared" ref="C19:C25" si="5">C3</f>
-        <v>65536</v>
-      </c>
-      <c r="D19" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="37">
-        <f t="shared" si="2"/>
-        <v>0.14282</v>
-      </c>
-      <c r="F19" s="38">
-        <f t="shared" ref="F19:F21" si="6">E19/E$18</f>
-        <v>3.3499870991954589E-2</v>
-      </c>
-      <c r="G19" s="37">
+      <c r="C22" s="46">
+        <f>C4</f>
+        <v>32768</v>
+      </c>
+      <c r="D22" s="38">
+        <f>D4</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="52">
+        <f>E4</f>
+        <v>0.16238</v>
+      </c>
+      <c r="F22" s="53">
+        <f t="shared" si="2"/>
+        <v>3.1320281608641143E-2</v>
+      </c>
+      <c r="G22" s="42">
+        <f>G4</f>
+        <v>0.48294999999999999</v>
+      </c>
+      <c r="H22" s="26">
         <f t="shared" si="3"/>
-        <v>1.0018</v>
-      </c>
-      <c r="H19" s="39">
-        <f t="shared" ref="H19:H21" si="7">G19/G$18</f>
-        <v>0.14001789008777324</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="34" t="str">
+        <v>7.9900403679438806E-2</v>
+      </c>
+      <c r="I22" s="56"/>
+    </row>
+    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="56"/>
+      <c r="B23" s="34" t="str">
+        <f>B5</f>
+        <v>ConcurrentBag&lt;SplitVec&lt;_, Linear&gt;&gt;::extend</v>
+      </c>
+      <c r="C23" s="46">
+        <f>C5</f>
+        <v>32768</v>
+      </c>
+      <c r="D23" s="38">
+        <f>D5</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="52">
+        <f>E5</f>
+        <v>0.15695000000000001</v>
+      </c>
+      <c r="F23" s="53">
+        <f t="shared" si="2"/>
+        <v>3.0272928922750509E-2</v>
+      </c>
+      <c r="G23" s="42">
+        <f>G5</f>
+        <v>0.42180000000000001</v>
+      </c>
+      <c r="H23" s="26">
+        <f t="shared" si="3"/>
+        <v>6.9783601350009924E-2</v>
+      </c>
+      <c r="I23" s="56"/>
+    </row>
+    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="56"/>
+      <c r="B24" s="35" t="str">
+        <f>B6</f>
+        <v>ConcurrentBag&lt;FixedVec&lt;_&gt;&gt;::extend</v>
+      </c>
+      <c r="C24" s="47">
+        <f>C6</f>
+        <v>32768</v>
+      </c>
+      <c r="D24" s="39">
+        <f>D6</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="54">
+        <f>E6</f>
+        <v>0.15395</v>
+      </c>
+      <c r="F24" s="55">
+        <f t="shared" si="2"/>
+        <v>2.969428102999325E-2</v>
+      </c>
+      <c r="G24" s="43">
+        <f>G6</f>
+        <v>0.43234</v>
+      </c>
+      <c r="H24" s="27">
+        <f t="shared" si="3"/>
+        <v>7.152736417179538E-2</v>
+      </c>
+      <c r="I24" s="56"/>
+    </row>
+    <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="56"/>
+      <c r="B25" s="33" t="str">
+        <f>B7</f>
+        <v>rayon</v>
+      </c>
+      <c r="C25" s="45">
+        <f>C7</f>
+        <v>131072</v>
+      </c>
+      <c r="D25" s="37">
+        <f>D7</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="50">
+        <f>E7</f>
+        <v>6.7740999999999998</v>
+      </c>
+      <c r="F25" s="51">
+        <f>E25/E$25</f>
+        <v>1</v>
+      </c>
+      <c r="G25" s="41">
+        <f>G7</f>
+        <v>16.777999999999999</v>
+      </c>
+      <c r="H25" s="25">
+        <f>G25/G$25</f>
+        <v>1</v>
+      </c>
+      <c r="I25" s="56"/>
+    </row>
+    <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="56"/>
+      <c r="B26" s="34" t="str">
+        <f>B8</f>
+        <v>AppendOnlyVec::push</v>
+      </c>
+      <c r="C26" s="46">
+        <f>C8</f>
+        <v>131072</v>
+      </c>
+      <c r="D26" s="38">
+        <f>D8</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="52">
+        <f>E8</f>
+        <v>25.175999999999998</v>
+      </c>
+      <c r="F26" s="53">
+        <f t="shared" ref="F26:F29" si="4">E26/E$25</f>
+        <v>3.7165084660692931</v>
+      </c>
+      <c r="G26" s="42">
+        <f>G8</f>
+        <v>25.814</v>
+      </c>
+      <c r="H26" s="26">
+        <f t="shared" ref="H26:H29" si="5">G26/G$25</f>
+        <v>1.5385624031469782</v>
+      </c>
+      <c r="I26" s="56"/>
+    </row>
+    <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="56"/>
+      <c r="B27" s="34" t="str">
+        <f>B9</f>
+        <v>ConcurrentBag&lt;SplitVec&lt;_, Doubling&gt;&gt;::extend</v>
+      </c>
+      <c r="C27" s="46">
+        <f>C9</f>
+        <v>131072</v>
+      </c>
+      <c r="D27" s="38">
+        <f>D9</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="52">
+        <f>E9</f>
+        <v>0.23336000000000001</v>
+      </c>
+      <c r="F27" s="53">
         <f t="shared" si="4"/>
+        <v>3.4448856674687417E-2</v>
+      </c>
+      <c r="G27" s="42">
+        <f>G9</f>
+        <v>1.6212</v>
+      </c>
+      <c r="H27" s="26">
+        <f t="shared" si="5"/>
+        <v>9.6626534747884144E-2</v>
+      </c>
+      <c r="I27" s="56"/>
+    </row>
+    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="56"/>
+      <c r="B28" s="34" t="str">
+        <f>B10</f>
         <v>ConcurrentBag&lt;SplitVec&lt;_, Linear&gt;&gt;::extend</v>
       </c>
-      <c r="C20" s="35">
+      <c r="C28" s="46">
+        <f>C10</f>
+        <v>131072</v>
+      </c>
+      <c r="D28" s="38">
+        <f>D10</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="52">
+        <f>E10</f>
+        <v>0.21779999999999999</v>
+      </c>
+      <c r="F28" s="53">
+        <f t="shared" si="4"/>
+        <v>3.2151872573478395E-2</v>
+      </c>
+      <c r="G28" s="42">
+        <f>G10</f>
+        <v>1.3922000000000001</v>
+      </c>
+      <c r="H28" s="26">
         <f t="shared" si="5"/>
-        <v>65536</v>
-      </c>
-      <c r="D20" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="37">
-        <f t="shared" si="2"/>
-        <v>0.15784000000000001</v>
-      </c>
-      <c r="F20" s="38">
-        <f t="shared" si="6"/>
-        <v>3.7022963432083132E-2</v>
-      </c>
-      <c r="G20" s="37">
-        <f t="shared" si="3"/>
-        <v>1.0303</v>
-      </c>
-      <c r="H20" s="39">
-        <f t="shared" si="7"/>
-        <v>0.14400122994353443</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="40" t="str">
+        <v>8.2977708904517833E-2</v>
+      </c>
+      <c r="I28" s="56"/>
+    </row>
+    <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="56"/>
+      <c r="B29" s="35" t="str">
+        <f>B11</f>
+        <v>ConcurrentBag&lt;FixedVec&lt;_&gt;&gt;::extend</v>
+      </c>
+      <c r="C29" s="47">
+        <f>C11</f>
+        <v>131072</v>
+      </c>
+      <c r="D29" s="39">
+        <f>D11</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="54">
+        <f>E11</f>
+        <v>0.21037</v>
+      </c>
+      <c r="F29" s="55">
         <f t="shared" si="4"/>
-        <v>ConcurrentBag&lt;FixedVec&lt;_&gt;&gt;::extend</v>
-      </c>
-      <c r="C21" s="41">
+        <v>3.1055047903042473E-2</v>
+      </c>
+      <c r="G29" s="43">
+        <f>G11</f>
+        <v>3.5659999999999998</v>
+      </c>
+      <c r="H29" s="27">
         <f t="shared" si="5"/>
-        <v>65536</v>
-      </c>
-      <c r="D21" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E21" s="43">
-        <f t="shared" si="2"/>
-        <v>0.14305000000000001</v>
-      </c>
-      <c r="F21" s="44">
-        <f t="shared" si="6"/>
-        <v>3.3553819810944574E-2</v>
-      </c>
-      <c r="G21" s="43">
-        <f t="shared" si="3"/>
-        <v>1.0033000000000001</v>
-      </c>
-      <c r="H21" s="45">
-        <f t="shared" si="7"/>
-        <v>0.14022753955386594</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="28" t="str">
-        <f t="shared" si="4"/>
-        <v>rayon</v>
-      </c>
-      <c r="C22" s="29">
-        <f t="shared" si="5"/>
-        <v>262144</v>
-      </c>
-      <c r="D22" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E22" s="31">
-        <f t="shared" si="2"/>
-        <v>5.3914</v>
-      </c>
-      <c r="F22" s="32">
-        <f>E22/E$22</f>
-        <v>1</v>
-      </c>
-      <c r="G22" s="31">
-        <f t="shared" si="3"/>
-        <v>26.247</v>
-      </c>
-      <c r="H22" s="33">
-        <f>G22/G$22</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v>ConcurrentBag&lt;SplitVec&lt;_, Doubling&gt;&gt;::extend</v>
-      </c>
-      <c r="C23" s="35">
-        <f t="shared" si="5"/>
-        <v>262144</v>
-      </c>
-      <c r="D23" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E23" s="37">
-        <f t="shared" si="2"/>
-        <v>0.21109</v>
-      </c>
-      <c r="F23" s="38">
-        <f t="shared" ref="F23:F25" si="8">E23/E$22</f>
-        <v>3.9153095670883258E-2</v>
-      </c>
-      <c r="G23" s="37">
-        <f t="shared" si="3"/>
-        <v>3.6606999999999998</v>
-      </c>
-      <c r="H23" s="39">
-        <f t="shared" ref="H23:H25" si="9">G23/G$22</f>
-        <v>0.13947117765839906</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="34" t="str">
-        <f t="shared" si="4"/>
-        <v>ConcurrentBag&lt;SplitVec&lt;_, Linear&gt;&gt;::extend</v>
-      </c>
-      <c r="C24" s="35">
-        <f t="shared" si="5"/>
-        <v>262144</v>
-      </c>
-      <c r="D24" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E24" s="37">
-        <f t="shared" si="2"/>
-        <v>0.20188999999999999</v>
-      </c>
-      <c r="F24" s="38">
-        <f t="shared" si="8"/>
-        <v>3.7446674333197309E-2</v>
-      </c>
-      <c r="G24" s="37">
-        <f t="shared" si="3"/>
-        <v>3.6219999999999999</v>
-      </c>
-      <c r="H24" s="39">
-        <f t="shared" si="9"/>
-        <v>0.13799672343505925</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="40" t="str">
-        <f t="shared" si="4"/>
-        <v>ConcurrentBag&lt;FixedVec&lt;_&gt;&gt;::extend</v>
-      </c>
-      <c r="C25" s="41">
-        <f t="shared" si="5"/>
-        <v>262144</v>
-      </c>
-      <c r="D25" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E25" s="43">
-        <f t="shared" si="2"/>
-        <v>0.19142999999999999</v>
-      </c>
-      <c r="F25" s="44">
-        <f t="shared" si="8"/>
-        <v>3.5506547464480467E-2</v>
-      </c>
-      <c r="G25" s="43">
-        <f t="shared" si="3"/>
-        <v>5.6154000000000002</v>
-      </c>
-      <c r="H25" s="45">
-        <f t="shared" si="9"/>
-        <v>0.21394445079437652</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+        <v>0.21254023125521518</v>
+      </c>
+      <c r="I29" s="56"/>
+    </row>
+    <row r="30" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="56"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="56"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
   </mergeCells>
-  <conditionalFormatting sqref="F18:F21">
+  <conditionalFormatting sqref="F20:F24">
     <cfRule type="dataBar" priority="4">
       <dataBar showValue="0">
         <cfvo type="min"/>
@@ -2031,7 +2512,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22:F25">
+  <conditionalFormatting sqref="F25:F29">
     <cfRule type="dataBar" priority="3">
       <dataBar showValue="0">
         <cfvo type="min"/>
@@ -2045,7 +2526,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H18:H21">
+  <conditionalFormatting sqref="H20:H24">
     <cfRule type="dataBar" priority="2">
       <dataBar showValue="0">
         <cfvo type="min"/>
@@ -2059,7 +2540,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22:H25">
+  <conditionalFormatting sqref="H25:H29">
     <cfRule type="dataBar" priority="1">
       <dataBar showValue="0">
         <cfvo type="min"/>
@@ -2074,9 +2555,9 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="F18:F25" formula="1"/>
+    <ignoredError sqref="F27:F29 F22:F25 F20" formula="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -2090,7 +2571,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F18:F21</xm:sqref>
+          <xm:sqref>F20:F24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1A28700B-E465-4EB4-8FEE-7612FD1016C3}">
@@ -2101,7 +2582,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F22:F25</xm:sqref>
+          <xm:sqref>F25:F29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{EFD277FB-0233-4310-96A1-652DC21423DE}">
@@ -2112,7 +2593,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H18:H21</xm:sqref>
+          <xm:sqref>H20:H24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{860C8C02-C98D-4E5B-AE47-C78A98AE937F}">
@@ -2123,7 +2604,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H22:H25</xm:sqref>
+          <xm:sqref>H25:H29</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2174,11 +2655,11 @@
       </c>
       <c r="E2">
         <f>collect_with_extend!E2</f>
-        <v>4.2633000000000001</v>
+        <v>5.1844999999999999</v>
       </c>
       <c r="G2">
         <f>collect_with_extend!G2</f>
-        <v>7.1547999999999998</v>
+        <v>6.0444000000000004</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
@@ -2604,14 +3085,14 @@
         <f>D1</f>
         <v>workload</v>
       </c>
-      <c r="E34" s="49" t="s">
+      <c r="E34" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="F34" s="50"/>
-      <c r="G34" s="49" t="s">
+      <c r="F34" s="30"/>
+      <c r="G34" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="H34" s="51"/>
+      <c r="H34" s="31"/>
     </row>
     <row r="35" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="4" t="str">
@@ -2628,7 +3109,7 @@
       </c>
       <c r="E35" s="8">
         <f>E2</f>
-        <v>4.2633000000000001</v>
+        <v>5.1844999999999999</v>
       </c>
       <c r="F35" s="5">
         <f>E35/E$35</f>
@@ -2636,7 +3117,7 @@
       </c>
       <c r="G35" s="8">
         <f>G2</f>
-        <v>7.1547999999999998</v>
+        <v>6.0444000000000004</v>
       </c>
       <c r="H35" s="5">
         <f>G35/G$35</f>
@@ -2662,7 +3143,7 @@
       </c>
       <c r="F36" s="19">
         <f t="shared" ref="F36:F39" si="3">E36/E$35</f>
-        <v>0.90929561607205678</v>
+        <v>0.7477288070209277</v>
       </c>
       <c r="G36" s="18">
         <f t="shared" ref="G36:G58" si="4">G3</f>
@@ -2670,7 +3151,7 @@
       </c>
       <c r="H36" s="19">
         <f t="shared" ref="H36:H40" si="5">G36/G$35</f>
-        <v>1.7417677642980935</v>
+        <v>2.0617431010522136</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2692,7 +3173,7 @@
       </c>
       <c r="F37" s="19">
         <f t="shared" si="3"/>
-        <v>0.58175591677808269</v>
+        <v>0.47838750120551643</v>
       </c>
       <c r="G37" s="18">
         <f t="shared" si="4"/>
@@ -2700,7 +3181,7 @@
       </c>
       <c r="H37" s="19">
         <f t="shared" si="5"/>
-        <v>1.5560183373399674</v>
+        <v>1.8418701608100057</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2722,7 +3203,7 @@
       </c>
       <c r="F38" s="19">
         <f t="shared" si="3"/>
-        <v>0.35212159594680181</v>
+        <v>0.28955540553573156</v>
       </c>
       <c r="G38" s="18">
         <f t="shared" si="4"/>
@@ -2730,7 +3211,7 @@
       </c>
       <c r="H38" s="19">
         <f t="shared" si="5"/>
-        <v>1.226826745681221</v>
+        <v>1.4522036926742106</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2752,7 +3233,7 @@
       </c>
       <c r="F39" s="19">
         <f t="shared" si="3"/>
-        <v>0.10800788121877418</v>
+        <v>8.8816665059311406E-2</v>
       </c>
       <c r="G39" s="18">
         <f t="shared" si="4"/>
@@ -2760,7 +3241,7 @@
       </c>
       <c r="H39" s="19">
         <f t="shared" si="5"/>
-        <v>1.1625901492704198</v>
+        <v>1.3761663688703591</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2782,7 +3263,7 @@
       </c>
       <c r="F40" s="7">
         <f>E40/E$35</f>
-        <v>8.9491708301081316E-2</v>
+        <v>7.3590510174558782E-2</v>
       </c>
       <c r="G40" s="9">
         <f t="shared" si="4"/>
@@ -2790,7 +3271,7 @@
       </c>
       <c r="H40" s="7">
         <f t="shared" si="5"/>
-        <v>1.0855789120590373</v>
+        <v>1.285007610350076</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -3547,4 +4028,10 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{736915f3-2f02-4945-8997-f2963298db46}" enabled="1" method="Standard" siteId="{cd99fef8-1cd3-4a2a-9bdf-15531181d65e}" contentBits="1" removed="0"/>
+</clbl:labelList>
 </file>
--- a/benches/results/collect.xlsx
+++ b/benches/results/collect.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\uarikan\repos\orx\orx-concurrent-bag\benches\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16FF053-C2F2-4DA4-9261-54925FF80878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC958CA2-6D84-46CE-8821-BC36BCF20ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="26010" windowHeight="20970" activeTab="1" xr2:uid="{201707E4-C870-4993-88CE-4A7BD9846E2B}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="26010" windowHeight="20985" activeTab="1" xr2:uid="{201707E4-C870-4993-88CE-4A7BD9846E2B}"/>
   </bookViews>
   <sheets>
     <sheet name="collect_with_push" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="23">
   <si>
     <t>number of elements</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>AppendOnlyVec::push</t>
+  </si>
+  <si>
+    <t>boxcar::Vec::push</t>
   </si>
 </sst>
 </file>
@@ -754,6 +757,79 @@
     <xf numFmtId="9" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -766,79 +842,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1161,10 +1164,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD7FC78D-902C-4DF1-8F50-38A3D8921053}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1175,7 +1178,7 @@
     <col min="5" max="8" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1190,7 +1193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -1207,12 +1210,9 @@
         <v>6.5256999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>21</v>
-      </c>
-      <c r="C3">
-        <v>32768</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3">
@@ -1222,570 +1222,604 @@
         <v>6.0011000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4">
+        <v>1.6512</v>
+      </c>
+      <c r="G4" s="22">
+        <v>2.1067999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C4">
-        <v>32768</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4">
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>1.7603</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G5" s="22">
         <v>1.8628</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="C5">
-        <v>32768</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5">
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>1.6412</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G6" s="22">
         <v>3.2086999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="20" t="s">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="20">
-        <v>32768</v>
-      </c>
-      <c r="D6" s="21">
-        <v>0</v>
-      </c>
-      <c r="E6" s="20">
+      <c r="C7" s="20"/>
+      <c r="D7" s="21">
+        <v>0</v>
+      </c>
+      <c r="E7" s="20">
         <v>1.2775000000000001</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="23">
+      <c r="F7" s="20"/>
+      <c r="G7" s="23">
         <v>2.6574</v>
       </c>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B7" t="str">
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" t="str">
         <f>B2</f>
         <v>rayon</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>131072</v>
       </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="24">
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="24">
         <v>6.5094000000000003</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G8" s="22">
         <v>16.443999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B8" t="str">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" t="str">
         <f>B3</f>
         <v>AppendOnlyVec::push</v>
       </c>
-      <c r="C8">
-        <v>131072</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="24">
+      <c r="D9" s="1"/>
+      <c r="E9" s="24">
         <v>24.431999999999999</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G9" s="22">
         <v>24.885000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B9" t="str">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" t="str">
         <f>B4</f>
+        <v>boxcar::Vec::push</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10">
+        <v>6.6147</v>
+      </c>
+      <c r="G10" s="22">
+        <v>12.266999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" t="str">
+        <f>B5</f>
         <v>ConcurrentBag&lt;SplitVec&lt;_, Doubling&gt;&gt;::push</v>
       </c>
-      <c r="C9">
-        <v>131072</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="24">
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="24">
         <v>7.4745999999999997</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G11" s="22">
         <v>8.4802</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B10" t="str">
-        <f>B5</f>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" t="str">
+        <f>B6</f>
         <v>ConcurrentBag&lt;SplitVec&lt;_, Linear&gt;&gt;::push</v>
       </c>
-      <c r="C10">
-        <v>131072</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="24">
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="24">
         <v>6.7279</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G12" s="22">
         <v>12.814</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="20" t="str">
-        <f>B6</f>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="20" t="str">
+        <f>B7</f>
         <v>ConcurrentBag&lt;FixedVec&lt;_&gt;&gt;::push</v>
       </c>
-      <c r="C11" s="20">
-        <v>131072</v>
-      </c>
-      <c r="D11" s="21">
-        <v>0</v>
-      </c>
-      <c r="E11" s="20">
+      <c r="C13" s="20"/>
+      <c r="D13" s="21">
+        <v>0</v>
+      </c>
+      <c r="E13" s="20">
         <v>5.3331999999999997</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20">
+      <c r="F13" s="20"/>
+      <c r="G13" s="20">
         <v>12.677</v>
       </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="56"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="56"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-    </row>
-    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="56"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-    </row>
-    <row r="19" spans="1:9" ht="39.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="56"/>
-      <c r="B19" s="32" t="s">
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="49"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="49"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+    </row>
+    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="49"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+    </row>
+    <row r="21" spans="1:9" ht="39.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="49"/>
+      <c r="B21" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="36" t="str">
+      <c r="C21" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="32" t="str">
         <f>D1</f>
         <v>workload</v>
       </c>
-      <c r="E19" s="48" t="s">
+      <c r="E21" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="49"/>
-      <c r="G19" s="40" t="s">
+      <c r="F21" s="51"/>
+      <c r="G21" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="H19" s="28"/>
-      <c r="I19" s="56"/>
-    </row>
-    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="56"/>
-      <c r="B20" s="33" t="str">
-        <f>B2</f>
+      <c r="H21" s="53"/>
+      <c r="I21" s="49"/>
+    </row>
+    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="49"/>
+      <c r="B22" s="29" t="str">
+        <f t="shared" ref="B22:C23" si="0">B2</f>
         <v>rayon</v>
       </c>
-      <c r="C20" s="45">
-        <f>C2</f>
+      <c r="C22" s="40">
+        <f t="shared" si="0"/>
         <v>32768</v>
       </c>
-      <c r="D20" s="37">
+      <c r="D22" s="33">
         <f>D2</f>
         <v>0</v>
       </c>
-      <c r="E20" s="50">
-        <f t="shared" ref="E20" si="0">E2</f>
+      <c r="E22" s="43">
+        <f t="shared" ref="E22" si="1">E2</f>
         <v>5.1227999999999998</v>
       </c>
-      <c r="F20" s="51">
-        <f>E20/E$20</f>
+      <c r="F22" s="44">
+        <f>E22/E$22</f>
         <v>1</v>
       </c>
-      <c r="G20" s="41">
-        <f t="shared" ref="G20" si="1">G2</f>
+      <c r="G22" s="36">
+        <f t="shared" ref="G22" si="2">G2</f>
         <v>6.5256999999999996</v>
       </c>
-      <c r="H20" s="25">
-        <f>G20/G$20</f>
+      <c r="H22" s="25">
+        <f>G22/G$22</f>
         <v>1</v>
       </c>
-      <c r="I20" s="56"/>
-    </row>
-    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="56"/>
-      <c r="B21" s="34" t="str">
-        <f>B3</f>
+      <c r="I22" s="49"/>
+    </row>
+    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="49"/>
+      <c r="B23" s="30" t="str">
+        <f t="shared" si="0"/>
         <v>AppendOnlyVec::push</v>
       </c>
-      <c r="C21" s="46">
-        <f>C3</f>
-        <v>32768</v>
-      </c>
-      <c r="D21" s="38"/>
-      <c r="E21" s="52">
-        <f>E3</f>
+      <c r="C23" s="41"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="45">
+        <f t="shared" ref="E23" si="3">E3</f>
         <v>6.0153999999999996</v>
       </c>
-      <c r="F21" s="53">
-        <f t="shared" ref="F21:F24" si="2">E21/E$20</f>
+      <c r="F23" s="46">
+        <f t="shared" ref="F23:F27" si="4">E23/E$22</f>
         <v>1.1742406496447255</v>
       </c>
-      <c r="G21" s="42">
-        <f>G3</f>
+      <c r="G23" s="37">
+        <f t="shared" ref="G23" si="5">G3</f>
         <v>6.0011000000000001</v>
       </c>
-      <c r="H21" s="26">
-        <f t="shared" ref="H21:H24" si="3">G21/G$20</f>
+      <c r="H23" s="26">
+        <f t="shared" ref="H23:H27" si="6">G23/G$22</f>
         <v>0.91961015676479163</v>
       </c>
-      <c r="I21" s="56"/>
-    </row>
-    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="56"/>
-      <c r="B22" s="34" t="str">
+      <c r="I23" s="49"/>
+    </row>
+    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="49"/>
+      <c r="B24" s="30" t="str">
         <f>B4</f>
+        <v>boxcar::Vec::push</v>
+      </c>
+      <c r="C24" s="41"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="45">
+        <f>E4</f>
+        <v>1.6512</v>
+      </c>
+      <c r="F24" s="46">
+        <f t="shared" si="4"/>
+        <v>0.32232372921058799</v>
+      </c>
+      <c r="G24" s="37">
+        <f>G4</f>
+        <v>2.1067999999999998</v>
+      </c>
+      <c r="H24" s="26">
+        <f t="shared" si="6"/>
+        <v>0.3228465911702959</v>
+      </c>
+      <c r="I24" s="49"/>
+    </row>
+    <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="49"/>
+      <c r="B25" s="30" t="str">
+        <f>B5</f>
         <v>ConcurrentBag&lt;SplitVec&lt;_, Doubling&gt;&gt;::push</v>
       </c>
-      <c r="C22" s="46">
-        <f>C4</f>
-        <v>32768</v>
-      </c>
-      <c r="D22" s="38">
-        <f>D4</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="52">
-        <f>E4</f>
+      <c r="C25" s="41"/>
+      <c r="D25" s="34">
+        <f>D5</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="45">
+        <f>E5</f>
         <v>1.7603</v>
       </c>
-      <c r="F22" s="53">
-        <f t="shared" si="2"/>
+      <c r="F25" s="46">
+        <f t="shared" si="4"/>
         <v>0.34362067619270714</v>
       </c>
-      <c r="G22" s="42">
-        <f>G4</f>
+      <c r="G25" s="37">
+        <f>G5</f>
         <v>1.8628</v>
       </c>
-      <c r="H22" s="26">
-        <f t="shared" si="3"/>
+      <c r="H25" s="26">
+        <f t="shared" si="6"/>
         <v>0.28545596640973386</v>
       </c>
-      <c r="I22" s="56"/>
-    </row>
-    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="56"/>
-      <c r="B23" s="34" t="str">
-        <f>B5</f>
+      <c r="I25" s="49"/>
+    </row>
+    <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="49"/>
+      <c r="B26" s="30" t="str">
+        <f>B6</f>
         <v>ConcurrentBag&lt;SplitVec&lt;_, Linear&gt;&gt;::push</v>
       </c>
-      <c r="C23" s="46">
-        <f>C5</f>
-        <v>32768</v>
-      </c>
-      <c r="D23" s="38">
-        <f>D5</f>
-        <v>0</v>
-      </c>
-      <c r="E23" s="52">
-        <f>E5</f>
+      <c r="C26" s="41"/>
+      <c r="D26" s="34">
+        <f>D6</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="45">
+        <f>E6</f>
         <v>1.6412</v>
       </c>
-      <c r="F23" s="53">
-        <f t="shared" si="2"/>
+      <c r="F26" s="46">
+        <f t="shared" si="4"/>
         <v>0.32037167174201608</v>
       </c>
-      <c r="G23" s="42">
-        <f>G5</f>
+      <c r="G26" s="37">
+        <f>G6</f>
         <v>3.2086999999999999</v>
       </c>
-      <c r="H23" s="26">
-        <f t="shared" si="3"/>
+      <c r="H26" s="26">
+        <f t="shared" si="6"/>
         <v>0.49170203962793263</v>
       </c>
-      <c r="I23" s="56"/>
-    </row>
-    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="56"/>
-      <c r="B24" s="35" t="str">
-        <f>B6</f>
+      <c r="I26" s="49"/>
+    </row>
+    <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="49"/>
+      <c r="B27" s="31" t="str">
+        <f>B7</f>
         <v>ConcurrentBag&lt;FixedVec&lt;_&gt;&gt;::push</v>
       </c>
-      <c r="C24" s="47">
-        <f>C6</f>
-        <v>32768</v>
-      </c>
-      <c r="D24" s="39">
-        <f>D6</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="54">
-        <f>E6</f>
+      <c r="C27" s="42"/>
+      <c r="D27" s="35">
+        <f>D7</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="47">
+        <f>E7</f>
         <v>1.2775000000000001</v>
       </c>
-      <c r="F24" s="55">
-        <f t="shared" si="2"/>
+      <c r="F27" s="48">
+        <f t="shared" si="4"/>
         <v>0.24937534161005703</v>
       </c>
-      <c r="G24" s="43">
-        <f>G6</f>
+      <c r="G27" s="38">
+        <f>G7</f>
         <v>2.6574</v>
       </c>
-      <c r="H24" s="27">
-        <f t="shared" si="3"/>
+      <c r="H27" s="27">
+        <f t="shared" si="6"/>
         <v>0.40722068130622002</v>
       </c>
-      <c r="I24" s="56"/>
-    </row>
-    <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="56"/>
-      <c r="B25" s="33" t="str">
-        <f>B7</f>
+      <c r="I27" s="49"/>
+    </row>
+    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="49"/>
+      <c r="B28" s="29" t="str">
+        <f>B8</f>
         <v>rayon</v>
       </c>
-      <c r="C25" s="45">
-        <f>C7</f>
-        <v>131072</v>
-      </c>
-      <c r="D25" s="37">
-        <f>D7</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="50">
-        <f>E7</f>
-        <v>6.5094000000000003</v>
-      </c>
-      <c r="F25" s="51">
-        <f>E25/E$25</f>
-        <v>1</v>
-      </c>
-      <c r="G25" s="41">
-        <f>G7</f>
-        <v>16.443999999999999</v>
-      </c>
-      <c r="H25" s="25">
-        <f>G25/G$25</f>
-        <v>1</v>
-      </c>
-      <c r="I25" s="56"/>
-    </row>
-    <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="56"/>
-      <c r="B26" s="34" t="str">
-        <f>B8</f>
-        <v>AppendOnlyVec::push</v>
-      </c>
-      <c r="C26" s="46">
+      <c r="C28" s="40">
         <f>C8</f>
         <v>131072</v>
       </c>
-      <c r="D26" s="38"/>
-      <c r="E26" s="52">
+      <c r="D28" s="33">
+        <f>D8</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="43">
         <f>E8</f>
+        <v>6.5094000000000003</v>
+      </c>
+      <c r="F28" s="44">
+        <f>E28/E$28</f>
+        <v>1</v>
+      </c>
+      <c r="G28" s="36">
+        <f>G8</f>
+        <v>16.443999999999999</v>
+      </c>
+      <c r="H28" s="25">
+        <f>G28/G$28</f>
+        <v>1</v>
+      </c>
+      <c r="I28" s="49"/>
+    </row>
+    <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="49"/>
+      <c r="B29" s="30" t="str">
+        <f>B9</f>
+        <v>AppendOnlyVec::push</v>
+      </c>
+      <c r="C29" s="41"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="45">
+        <f>E9</f>
         <v>24.431999999999999</v>
       </c>
-      <c r="F26" s="53">
-        <f t="shared" ref="F26:F29" si="4">E26/E$25</f>
+      <c r="F29" s="46">
+        <f t="shared" ref="F29:F33" si="7">E29/E$28</f>
         <v>3.7533413217808089</v>
       </c>
-      <c r="G26" s="42">
-        <f>G8</f>
+      <c r="G29" s="37">
+        <f>G9</f>
         <v>24.885000000000002</v>
       </c>
-      <c r="H26" s="26">
-        <f t="shared" ref="H26:H29" si="5">G26/G$25</f>
+      <c r="H29" s="26">
+        <f t="shared" ref="H29:H33" si="8">G29/G$28</f>
         <v>1.5133179275115545</v>
       </c>
-      <c r="I26" s="56"/>
-    </row>
-    <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="56"/>
-      <c r="B27" s="34" t="str">
-        <f>B9</f>
+      <c r="I29" s="49"/>
+    </row>
+    <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="49"/>
+      <c r="B30" s="30" t="str">
+        <f>B10</f>
+        <v>boxcar::Vec::push</v>
+      </c>
+      <c r="C30" s="41"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="45">
+        <f>E10</f>
+        <v>6.6147</v>
+      </c>
+      <c r="F30" s="46">
+        <f t="shared" si="7"/>
+        <v>1.0161766061388147</v>
+      </c>
+      <c r="G30" s="37">
+        <f>G10</f>
+        <v>12.266999999999999</v>
+      </c>
+      <c r="H30" s="26">
+        <f t="shared" si="8"/>
+        <v>0.7459863780102165</v>
+      </c>
+      <c r="I30" s="49"/>
+    </row>
+    <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="49"/>
+      <c r="B31" s="30" t="str">
+        <f>B11</f>
         <v>ConcurrentBag&lt;SplitVec&lt;_, Doubling&gt;&gt;::push</v>
       </c>
-      <c r="C27" s="46">
-        <f>C9</f>
-        <v>131072</v>
-      </c>
-      <c r="D27" s="38">
-        <f>D9</f>
-        <v>0</v>
-      </c>
-      <c r="E27" s="52">
-        <f>E9</f>
+      <c r="C31" s="41"/>
+      <c r="D31" s="34">
+        <f>D11</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="45">
+        <f>E11</f>
         <v>7.4745999999999997</v>
       </c>
-      <c r="F27" s="53">
-        <f t="shared" si="4"/>
+      <c r="F31" s="46">
+        <f t="shared" si="7"/>
         <v>1.1482778750729712</v>
       </c>
-      <c r="G27" s="42">
-        <f>G9</f>
+      <c r="G31" s="37">
+        <f>G11</f>
         <v>8.4802</v>
       </c>
-      <c r="H27" s="26">
-        <f t="shared" si="5"/>
+      <c r="H31" s="26">
+        <f t="shared" si="8"/>
         <v>0.51570177572366827</v>
       </c>
-      <c r="I27" s="56"/>
-    </row>
-    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="56"/>
-      <c r="B28" s="34" t="str">
-        <f>B10</f>
+      <c r="I31" s="49"/>
+    </row>
+    <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="49"/>
+      <c r="B32" s="30" t="str">
+        <f>B12</f>
         <v>ConcurrentBag&lt;SplitVec&lt;_, Linear&gt;&gt;::push</v>
       </c>
-      <c r="C28" s="46">
-        <f>C10</f>
-        <v>131072</v>
-      </c>
-      <c r="D28" s="38">
-        <f>D10</f>
-        <v>0</v>
-      </c>
-      <c r="E28" s="52">
-        <f>E10</f>
+      <c r="C32" s="41"/>
+      <c r="D32" s="34">
+        <f>D12</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="45">
+        <f>E12</f>
         <v>6.7279</v>
       </c>
-      <c r="F28" s="53">
-        <f t="shared" si="4"/>
+      <c r="F32" s="46">
+        <f t="shared" si="7"/>
         <v>1.0335668417980151</v>
       </c>
-      <c r="G28" s="42">
-        <f>G10</f>
+      <c r="G32" s="37">
+        <f>G12</f>
         <v>12.814</v>
       </c>
-      <c r="H28" s="26">
-        <f t="shared" si="5"/>
+      <c r="H32" s="26">
+        <f t="shared" si="8"/>
         <v>0.77925079056190716</v>
       </c>
-      <c r="I28" s="56"/>
-    </row>
-    <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="56"/>
-      <c r="B29" s="35" t="str">
-        <f>B11</f>
+      <c r="I32" s="49"/>
+    </row>
+    <row r="33" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="49"/>
+      <c r="B33" s="31" t="str">
+        <f>B13</f>
         <v>ConcurrentBag&lt;FixedVec&lt;_&gt;&gt;::push</v>
       </c>
-      <c r="C29" s="47">
-        <f>C11</f>
-        <v>131072</v>
-      </c>
-      <c r="D29" s="39">
-        <f>D11</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="54">
-        <f>E11</f>
+      <c r="C33" s="42"/>
+      <c r="D33" s="35">
+        <f>D13</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="47">
+        <f>E13</f>
         <v>5.3331999999999997</v>
       </c>
-      <c r="F29" s="55">
-        <f t="shared" si="4"/>
+      <c r="F33" s="48">
+        <f t="shared" si="7"/>
         <v>0.81930746305343038</v>
       </c>
-      <c r="G29" s="43">
-        <f>G11</f>
+      <c r="G33" s="38">
+        <f>G13</f>
         <v>12.677</v>
       </c>
-      <c r="H29" s="27">
-        <f t="shared" si="5"/>
+      <c r="H33" s="27">
+        <f t="shared" si="8"/>
         <v>0.77091948431038682</v>
       </c>
-      <c r="I29" s="56"/>
-    </row>
-    <row r="30" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="56"/>
-      <c r="B30" s="56"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="56"/>
-      <c r="B31" s="56"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="56"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="56"/>
-      <c r="B32" s="56"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="56"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="56"/>
+      <c r="I33" s="49"/>
+    </row>
+    <row r="34" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="49"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="49"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="49"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="49"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
   </mergeCells>
-  <conditionalFormatting sqref="F20:F24">
+  <conditionalFormatting sqref="F22:F27">
     <cfRule type="dataBar" priority="4">
       <dataBar showValue="0">
         <cfvo type="min"/>
@@ -1799,7 +1833,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F25:F29">
+  <conditionalFormatting sqref="F28:F33">
     <cfRule type="dataBar" priority="3">
       <dataBar showValue="0">
         <cfvo type="min"/>
@@ -1813,7 +1847,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H20:H24">
+  <conditionalFormatting sqref="H22:H27">
     <cfRule type="dataBar" priority="2">
       <dataBar showValue="0">
         <cfvo type="min"/>
@@ -1827,7 +1861,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H25:H29">
+  <conditionalFormatting sqref="H28:H33">
     <cfRule type="dataBar" priority="1">
       <dataBar showValue="0">
         <cfvo type="min"/>
@@ -1844,7 +1878,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="F27:F29 F22:F25 F20" formula="1"/>
+    <ignoredError sqref="F31:F33 F25:F28 F22" formula="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -1858,7 +1892,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F20:F24</xm:sqref>
+          <xm:sqref>F22:F27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E9B70DED-250E-46E6-A5C7-D5F48F2D6F77}">
@@ -1869,7 +1903,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F25:F29</xm:sqref>
+          <xm:sqref>F28:F33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B022FDA3-7EBB-4DC4-A3A9-6D235CB84EE1}">
@@ -1880,7 +1914,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H20:H24</xm:sqref>
+          <xm:sqref>H22:H27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{01B817C0-39B1-4552-A0FE-5DFFA6937FE7}">
@@ -1891,7 +1925,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H25:H29</xm:sqref>
+          <xm:sqref>H28:H33</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -1901,10 +1935,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAC745C-D468-49EC-93AB-3CA0AF648CD4}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1951,555 +1985,622 @@
       <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c r="C3">
-        <v>32768</v>
-      </c>
       <c r="D3" s="1"/>
       <c r="E3">
-        <v>6.5103999999999997</v>
-      </c>
-      <c r="G3" s="22">
-        <v>6.4617000000000004</v>
+        <f>collect_with_push!E3</f>
+        <v>6.0153999999999996</v>
+      </c>
+      <c r="G3">
+        <f>collect_with_push!G3</f>
+        <v>6.0011000000000001</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4">
-        <v>32768</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D4" s="1"/>
       <c r="E4">
-        <v>0.16238</v>
-      </c>
-      <c r="G4" s="22">
-        <v>0.48294999999999999</v>
+        <f>collect_with_push!E4</f>
+        <v>1.6512</v>
+      </c>
+      <c r="G4">
+        <f>collect_with_push!G4</f>
+        <v>2.1067999999999998</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0.16238</v>
+      </c>
+      <c r="G5" s="22">
+        <v>0.48294999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="C5">
-        <v>32768</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5">
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>0.15695000000000001</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G6" s="22">
         <v>0.42180000000000001</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="20" t="s">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="20">
-        <v>32768</v>
-      </c>
-      <c r="D6" s="21">
-        <v>0</v>
-      </c>
-      <c r="E6" s="20">
+      <c r="C7" s="20"/>
+      <c r="D7" s="21">
+        <v>0</v>
+      </c>
+      <c r="E7" s="20">
         <v>0.15395</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="23">
+      <c r="F7" s="20"/>
+      <c r="G7" s="23">
         <v>0.43234</v>
       </c>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" t="str">
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" t="str">
         <f>B2</f>
         <v>rayon</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>131072</v>
       </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7">
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6.7740999999999998</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G8" s="22">
         <v>16.777999999999999</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" t="str">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" t="str">
         <f>B3</f>
         <v>AppendOnlyVec::push</v>
       </c>
-      <c r="C8">
-        <v>131072</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8">
-        <v>25.175999999999998</v>
-      </c>
-      <c r="G8" s="22">
-        <v>25.814</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" t="str">
-        <f>B4</f>
-        <v>ConcurrentBag&lt;SplitVec&lt;_, Doubling&gt;&gt;::extend</v>
-      </c>
-      <c r="C9">
-        <v>131072</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
+      <c r="D9" s="1"/>
       <c r="E9">
-        <v>0.23336000000000001</v>
-      </c>
-      <c r="G9" s="22">
-        <v>1.6212</v>
+        <f>collect_with_push!E9</f>
+        <v>24.431999999999999</v>
+      </c>
+      <c r="G9">
+        <f>collect_with_push!G9</f>
+        <v>24.885000000000002</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" t="str">
-        <f>B5</f>
-        <v>ConcurrentBag&lt;SplitVec&lt;_, Linear&gt;&gt;::extend</v>
-      </c>
-      <c r="C10">
-        <v>131072</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
+        <f>B4</f>
+        <v>boxcar::Vec::push</v>
+      </c>
+      <c r="D10" s="1"/>
       <c r="E10">
-        <v>0.21779999999999999</v>
-      </c>
-      <c r="G10" s="22">
-        <v>1.3922000000000001</v>
+        <f>collect_with_push!E10</f>
+        <v>6.6147</v>
+      </c>
+      <c r="G10">
+        <f>collect_with_push!G10</f>
+        <v>12.266999999999999</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" t="str">
+        <f>B5</f>
+        <v>ConcurrentBag&lt;SplitVec&lt;_, Doubling&gt;&gt;::extend</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0.23336000000000001</v>
+      </c>
+      <c r="G11" s="22">
+        <v>1.6212</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" t="str">
         <f>B6</f>
+        <v>ConcurrentBag&lt;SplitVec&lt;_, Linear&gt;&gt;::extend</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0.21779999999999999</v>
+      </c>
+      <c r="G12" s="22">
+        <v>1.3922000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" t="str">
+        <f>B7</f>
         <v>ConcurrentBag&lt;FixedVec&lt;_&gt;&gt;::extend</v>
       </c>
-      <c r="C11" s="20">
-        <v>131072</v>
-      </c>
-      <c r="D11" s="21">
-        <v>0</v>
-      </c>
-      <c r="E11" s="20">
+      <c r="C13" s="20"/>
+      <c r="D13" s="21">
+        <v>0</v>
+      </c>
+      <c r="E13" s="20">
         <v>0.21037</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20">
+      <c r="F13" s="20"/>
+      <c r="G13" s="20">
         <v>3.5659999999999998</v>
       </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="56"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-    </row>
-    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="56"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-    </row>
-    <row r="19" spans="1:9" ht="39.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="56"/>
-      <c r="B19" s="32" t="s">
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="49"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+    </row>
+    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="49"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+    </row>
+    <row r="21" spans="1:9" ht="39.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="49"/>
+      <c r="B21" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="36" t="str">
+      <c r="C21" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="32" t="str">
         <f>D1</f>
         <v>workload</v>
       </c>
-      <c r="E19" s="48" t="s">
+      <c r="E21" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="49"/>
-      <c r="G19" s="40" t="s">
+      <c r="F21" s="51"/>
+      <c r="G21" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="H19" s="28"/>
-      <c r="I19" s="56"/>
-    </row>
-    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="56"/>
-      <c r="B20" s="33" t="str">
+      <c r="H21" s="53"/>
+      <c r="I21" s="49"/>
+    </row>
+    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="49"/>
+      <c r="B22" s="29" t="str">
         <f>B2</f>
         <v>rayon</v>
       </c>
-      <c r="C20" s="45">
+      <c r="C22" s="40">
         <f>C2</f>
         <v>32768</v>
       </c>
-      <c r="D20" s="37">
+      <c r="D22" s="33">
         <f>D2</f>
         <v>0</v>
       </c>
-      <c r="E20" s="50">
-        <f t="shared" ref="E20" si="0">E2</f>
+      <c r="E22" s="43">
+        <f>E2</f>
         <v>5.1844999999999999</v>
       </c>
-      <c r="F20" s="51">
-        <f>E20/E$20</f>
+      <c r="F22" s="44">
+        <f>E22/E$22</f>
         <v>1</v>
       </c>
-      <c r="G20" s="41">
-        <f t="shared" ref="G20" si="1">G2</f>
+      <c r="G22" s="36">
+        <f>G2</f>
         <v>6.0444000000000004</v>
       </c>
-      <c r="H20" s="25">
-        <f>G20/G$20</f>
+      <c r="H22" s="25">
+        <f>G22/G$22</f>
         <v>1</v>
       </c>
-      <c r="I20" s="56"/>
-    </row>
-    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="56"/>
-      <c r="B21" s="34" t="str">
+      <c r="I22" s="49"/>
+    </row>
+    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="49"/>
+      <c r="B23" s="30" t="str">
         <f>B3</f>
         <v>AppendOnlyVec::push</v>
       </c>
-      <c r="C21" s="46">
-        <f>C3</f>
-        <v>32768</v>
-      </c>
-      <c r="D21" s="38">
+      <c r="C23" s="41"/>
+      <c r="D23" s="34">
         <f>D3</f>
         <v>0</v>
       </c>
-      <c r="E21" s="52">
-        <f>E3</f>
-        <v>6.5103999999999997</v>
-      </c>
-      <c r="F21" s="53">
-        <f t="shared" ref="F21:F24" si="2">E21/E$20</f>
-        <v>1.2557430803356158</v>
-      </c>
-      <c r="G21" s="42">
-        <f>G3</f>
-        <v>6.4617000000000004</v>
-      </c>
-      <c r="H21" s="26">
-        <f t="shared" ref="H21:H24" si="3">G21/G$20</f>
-        <v>1.0690391105816954</v>
-      </c>
-      <c r="I21" s="56"/>
-    </row>
-    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="56"/>
-      <c r="B22" s="34" t="str">
+      <c r="E23" s="45">
+        <f t="shared" ref="E23" si="0">E3</f>
+        <v>6.0153999999999996</v>
+      </c>
+      <c r="F23" s="46">
+        <f t="shared" ref="F23:F27" si="1">E23/E$22</f>
+        <v>1.1602661780306682</v>
+      </c>
+      <c r="G23" s="37">
+        <f t="shared" ref="G23" si="2">G3</f>
+        <v>6.0011000000000001</v>
+      </c>
+      <c r="H23" s="26">
+        <f t="shared" ref="H23:H27" si="3">G23/G$22</f>
+        <v>0.99283634438488511</v>
+      </c>
+      <c r="I23" s="49"/>
+    </row>
+    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="49"/>
+      <c r="B24" s="30" t="str">
         <f>B4</f>
+        <v>boxcar::Vec::push</v>
+      </c>
+      <c r="C24" s="41"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="45">
+        <f>E4</f>
+        <v>1.6512</v>
+      </c>
+      <c r="F24" s="46">
+        <f t="shared" si="1"/>
+        <v>0.31848780017359435</v>
+      </c>
+      <c r="G24" s="37">
+        <f>G4</f>
+        <v>2.1067999999999998</v>
+      </c>
+      <c r="H24" s="26">
+        <f t="shared" si="3"/>
+        <v>0.34855403348554026</v>
+      </c>
+      <c r="I24" s="49"/>
+    </row>
+    <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="49"/>
+      <c r="B25" s="30" t="str">
+        <f>B5</f>
         <v>ConcurrentBag&lt;SplitVec&lt;_, Doubling&gt;&gt;::extend</v>
       </c>
-      <c r="C22" s="46">
-        <f>C4</f>
-        <v>32768</v>
-      </c>
-      <c r="D22" s="38">
-        <f>D4</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="52">
-        <f>E4</f>
+      <c r="C25" s="41"/>
+      <c r="D25" s="34">
+        <f>D5</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="45">
+        <f>E5</f>
         <v>0.16238</v>
       </c>
-      <c r="F22" s="53">
-        <f t="shared" si="2"/>
+      <c r="F25" s="46">
+        <f t="shared" si="1"/>
         <v>3.1320281608641143E-2</v>
       </c>
-      <c r="G22" s="42">
-        <f>G4</f>
+      <c r="G25" s="37">
+        <f>G5</f>
         <v>0.48294999999999999</v>
       </c>
-      <c r="H22" s="26">
+      <c r="H25" s="26">
         <f t="shared" si="3"/>
         <v>7.9900403679438806E-2</v>
       </c>
-      <c r="I22" s="56"/>
-    </row>
-    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="56"/>
-      <c r="B23" s="34" t="str">
-        <f>B5</f>
+      <c r="I25" s="49"/>
+    </row>
+    <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="49"/>
+      <c r="B26" s="30" t="str">
+        <f>B6</f>
         <v>ConcurrentBag&lt;SplitVec&lt;_, Linear&gt;&gt;::extend</v>
       </c>
-      <c r="C23" s="46">
-        <f>C5</f>
-        <v>32768</v>
-      </c>
-      <c r="D23" s="38">
-        <f>D5</f>
-        <v>0</v>
-      </c>
-      <c r="E23" s="52">
-        <f>E5</f>
+      <c r="C26" s="41"/>
+      <c r="D26" s="34">
+        <f>D6</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="45">
+        <f>E6</f>
         <v>0.15695000000000001</v>
       </c>
-      <c r="F23" s="53">
-        <f t="shared" si="2"/>
+      <c r="F26" s="46">
+        <f t="shared" si="1"/>
         <v>3.0272928922750509E-2</v>
       </c>
-      <c r="G23" s="42">
-        <f>G5</f>
+      <c r="G26" s="37">
+        <f>G6</f>
         <v>0.42180000000000001</v>
       </c>
-      <c r="H23" s="26">
+      <c r="H26" s="26">
         <f t="shared" si="3"/>
         <v>6.9783601350009924E-2</v>
       </c>
-      <c r="I23" s="56"/>
-    </row>
-    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="56"/>
-      <c r="B24" s="35" t="str">
-        <f>B6</f>
+      <c r="I26" s="49"/>
+    </row>
+    <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="49"/>
+      <c r="B27" s="31" t="str">
+        <f>B7</f>
         <v>ConcurrentBag&lt;FixedVec&lt;_&gt;&gt;::extend</v>
       </c>
-      <c r="C24" s="47">
-        <f>C6</f>
-        <v>32768</v>
-      </c>
-      <c r="D24" s="39">
-        <f>D6</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="54">
-        <f>E6</f>
+      <c r="C27" s="42"/>
+      <c r="D27" s="35">
+        <f>D7</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="47">
+        <f>E7</f>
         <v>0.15395</v>
       </c>
-      <c r="F24" s="55">
-        <f t="shared" si="2"/>
+      <c r="F27" s="48">
+        <f t="shared" si="1"/>
         <v>2.969428102999325E-2</v>
       </c>
-      <c r="G24" s="43">
-        <f>G6</f>
+      <c r="G27" s="38">
+        <f>G7</f>
         <v>0.43234</v>
       </c>
-      <c r="H24" s="27">
+      <c r="H27" s="27">
         <f t="shared" si="3"/>
         <v>7.152736417179538E-2</v>
       </c>
-      <c r="I24" s="56"/>
-    </row>
-    <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="56"/>
-      <c r="B25" s="33" t="str">
-        <f>B7</f>
+      <c r="I27" s="49"/>
+    </row>
+    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="49"/>
+      <c r="B28" s="29" t="str">
+        <f>B8</f>
         <v>rayon</v>
       </c>
-      <c r="C25" s="45">
-        <f>C7</f>
-        <v>131072</v>
-      </c>
-      <c r="D25" s="37">
-        <f>D7</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="50">
-        <f>E7</f>
-        <v>6.7740999999999998</v>
-      </c>
-      <c r="F25" s="51">
-        <f>E25/E$25</f>
-        <v>1</v>
-      </c>
-      <c r="G25" s="41">
-        <f>G7</f>
-        <v>16.777999999999999</v>
-      </c>
-      <c r="H25" s="25">
-        <f>G25/G$25</f>
-        <v>1</v>
-      </c>
-      <c r="I25" s="56"/>
-    </row>
-    <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="56"/>
-      <c r="B26" s="34" t="str">
-        <f>B8</f>
-        <v>AppendOnlyVec::push</v>
-      </c>
-      <c r="C26" s="46">
+      <c r="C28" s="40">
         <f>C8</f>
         <v>131072</v>
       </c>
-      <c r="D26" s="38">
+      <c r="D28" s="33">
         <f>D8</f>
         <v>0</v>
       </c>
-      <c r="E26" s="52">
+      <c r="E28" s="43">
         <f>E8</f>
-        <v>25.175999999999998</v>
-      </c>
-      <c r="F26" s="53">
-        <f t="shared" ref="F26:F29" si="4">E26/E$25</f>
-        <v>3.7165084660692931</v>
-      </c>
-      <c r="G26" s="42">
+        <v>6.7740999999999998</v>
+      </c>
+      <c r="F28" s="44">
+        <f>E28/E$28</f>
+        <v>1</v>
+      </c>
+      <c r="G28" s="36">
         <f>G8</f>
-        <v>25.814</v>
-      </c>
-      <c r="H26" s="26">
-        <f t="shared" ref="H26:H29" si="5">G26/G$25</f>
-        <v>1.5385624031469782</v>
-      </c>
-      <c r="I26" s="56"/>
-    </row>
-    <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="56"/>
-      <c r="B27" s="34" t="str">
+        <v>16.777999999999999</v>
+      </c>
+      <c r="H28" s="25">
+        <f>G28/G$28</f>
+        <v>1</v>
+      </c>
+      <c r="I28" s="49"/>
+    </row>
+    <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="49"/>
+      <c r="B29" s="30" t="str">
         <f>B9</f>
+        <v>AppendOnlyVec::push</v>
+      </c>
+      <c r="C29" s="41"/>
+      <c r="D29" s="34">
+        <f>D9</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="45">
+        <f>E9</f>
+        <v>24.431999999999999</v>
+      </c>
+      <c r="F29" s="46">
+        <f t="shared" ref="F29:F33" si="4">E29/E$28</f>
+        <v>3.6066783779395046</v>
+      </c>
+      <c r="G29" s="37">
+        <f>G9</f>
+        <v>24.885000000000002</v>
+      </c>
+      <c r="H29" s="26">
+        <f t="shared" ref="H29:H33" si="5">G29/G$28</f>
+        <v>1.4831922755989988</v>
+      </c>
+      <c r="I29" s="49"/>
+    </row>
+    <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="49"/>
+      <c r="B30" s="30" t="str">
+        <f>B10</f>
+        <v>boxcar::Vec::push</v>
+      </c>
+      <c r="C30" s="41"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="45">
+        <f>E10</f>
+        <v>6.6147</v>
+      </c>
+      <c r="F30" s="46">
+        <f t="shared" si="4"/>
+        <v>0.97646919886036521</v>
+      </c>
+      <c r="G30" s="37">
+        <f>G10</f>
+        <v>12.266999999999999</v>
+      </c>
+      <c r="H30" s="26">
+        <f t="shared" si="5"/>
+        <v>0.73113601144355711</v>
+      </c>
+      <c r="I30" s="49"/>
+    </row>
+    <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="49"/>
+      <c r="B31" s="30" t="str">
+        <f>B11</f>
         <v>ConcurrentBag&lt;SplitVec&lt;_, Doubling&gt;&gt;::extend</v>
       </c>
-      <c r="C27" s="46">
-        <f>C9</f>
-        <v>131072</v>
-      </c>
-      <c r="D27" s="38">
-        <f>D9</f>
-        <v>0</v>
-      </c>
-      <c r="E27" s="52">
-        <f>E9</f>
+      <c r="C31" s="41"/>
+      <c r="D31" s="34">
+        <f>D11</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="45">
+        <f>E11</f>
         <v>0.23336000000000001</v>
       </c>
-      <c r="F27" s="53">
+      <c r="F31" s="46">
         <f t="shared" si="4"/>
         <v>3.4448856674687417E-2</v>
       </c>
-      <c r="G27" s="42">
-        <f>G9</f>
+      <c r="G31" s="37">
+        <f>G11</f>
         <v>1.6212</v>
       </c>
-      <c r="H27" s="26">
+      <c r="H31" s="26">
         <f t="shared" si="5"/>
         <v>9.6626534747884144E-2</v>
       </c>
-      <c r="I27" s="56"/>
-    </row>
-    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="56"/>
-      <c r="B28" s="34" t="str">
-        <f>B10</f>
+      <c r="I31" s="49"/>
+    </row>
+    <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="49"/>
+      <c r="B32" s="30" t="str">
+        <f>B12</f>
         <v>ConcurrentBag&lt;SplitVec&lt;_, Linear&gt;&gt;::extend</v>
       </c>
-      <c r="C28" s="46">
-        <f>C10</f>
-        <v>131072</v>
-      </c>
-      <c r="D28" s="38">
-        <f>D10</f>
-        <v>0</v>
-      </c>
-      <c r="E28" s="52">
-        <f>E10</f>
+      <c r="C32" s="41"/>
+      <c r="D32" s="34">
+        <f>D12</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="45">
+        <f>E12</f>
         <v>0.21779999999999999</v>
       </c>
-      <c r="F28" s="53">
+      <c r="F32" s="46">
         <f t="shared" si="4"/>
         <v>3.2151872573478395E-2</v>
       </c>
-      <c r="G28" s="42">
-        <f>G10</f>
+      <c r="G32" s="37">
+        <f>G12</f>
         <v>1.3922000000000001</v>
       </c>
-      <c r="H28" s="26">
+      <c r="H32" s="26">
         <f t="shared" si="5"/>
         <v>8.2977708904517833E-2</v>
       </c>
-      <c r="I28" s="56"/>
-    </row>
-    <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="56"/>
-      <c r="B29" s="35" t="str">
-        <f>B11</f>
+      <c r="I32" s="49"/>
+    </row>
+    <row r="33" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="49"/>
+      <c r="B33" s="31" t="str">
+        <f>B13</f>
         <v>ConcurrentBag&lt;FixedVec&lt;_&gt;&gt;::extend</v>
       </c>
-      <c r="C29" s="47">
-        <f>C11</f>
-        <v>131072</v>
-      </c>
-      <c r="D29" s="39">
-        <f>D11</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="54">
-        <f>E11</f>
+      <c r="C33" s="42"/>
+      <c r="D33" s="35">
+        <f>D13</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="47">
+        <f>E13</f>
         <v>0.21037</v>
       </c>
-      <c r="F29" s="55">
+      <c r="F33" s="48">
         <f t="shared" si="4"/>
         <v>3.1055047903042473E-2</v>
       </c>
-      <c r="G29" s="43">
-        <f>G11</f>
+      <c r="G33" s="38">
+        <f>G13</f>
         <v>3.5659999999999998</v>
       </c>
-      <c r="H29" s="27">
+      <c r="H33" s="27">
         <f t="shared" si="5"/>
         <v>0.21254023125521518</v>
       </c>
-      <c r="I29" s="56"/>
-    </row>
-    <row r="30" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="56"/>
-      <c r="B30" s="56"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="56"/>
-      <c r="B31" s="56"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="56"/>
+      <c r="I33" s="49"/>
+    </row>
+    <row r="34" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="49"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="49"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
   </mergeCells>
-  <conditionalFormatting sqref="F20:F24">
-    <cfRule type="dataBar" priority="4">
+  <conditionalFormatting sqref="F28:F33">
+    <cfRule type="dataBar" priority="9">
+      <dataBar showValue="0">
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF3300"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1A28700B-E465-4EB4-8FEE-7612FD1016C3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28:H33">
+    <cfRule type="dataBar" priority="11">
+      <dataBar showValue="0">
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF3300"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{860C8C02-C98D-4E5B-AE47-C78A98AE937F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22:F27">
+    <cfRule type="dataBar" priority="12">
       <dataBar showValue="0">
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2512,22 +2613,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F25:F29">
-    <cfRule type="dataBar" priority="3">
-      <dataBar showValue="0">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF3300"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1A28700B-E465-4EB4-8FEE-7612FD1016C3}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20:H24">
-    <cfRule type="dataBar" priority="2">
+  <conditionalFormatting sqref="H22:H27">
+    <cfRule type="dataBar" priority="14">
       <dataBar showValue="0">
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2540,28 +2627,36 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H25:H29">
-    <cfRule type="dataBar" priority="1">
-      <dataBar showValue="0">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF3300"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{860C8C02-C98D-4E5B-AE47-C78A98AE937F}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="F27:F29 F22:F25 F20" formula="1"/>
+    <ignoredError sqref="F31:F33 F25:F28 F22" formula="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1A28700B-E465-4EB4-8FEE-7612FD1016C3}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F28:F33</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{860C8C02-C98D-4E5B-AE47-C78A98AE937F}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H28:H33</xm:sqref>
+        </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2957D239-BCD4-45F5-8859-242251531A0B}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
@@ -2571,18 +2666,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F20:F24</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1A28700B-E465-4EB4-8FEE-7612FD1016C3}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F25:F29</xm:sqref>
+          <xm:sqref>F22:F27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{EFD277FB-0233-4310-96A1-652DC21423DE}">
@@ -2593,18 +2677,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H20:H24</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{860C8C02-C98D-4E5B-AE47-C78A98AE937F}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H25:H29</xm:sqref>
+          <xm:sqref>H22:H27</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2616,7 +2689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF97F42C-248E-4367-AF13-B78D57BAABDB}">
   <dimension ref="B1:I58"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
@@ -3085,14 +3158,14 @@
         <f>D1</f>
         <v>workload</v>
       </c>
-      <c r="E34" s="29" t="s">
+      <c r="E34" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="F34" s="30"/>
-      <c r="G34" s="29" t="s">
+      <c r="F34" s="55"/>
+      <c r="G34" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="H34" s="31"/>
+      <c r="H34" s="56"/>
     </row>
     <row r="35" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="4" t="str">
